--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9469DE7-C9EA-4E20-A66F-F65AB578D0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1C56BA-6323-4814-8AB3-7A59D945E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +944,15 @@
   </si>
   <si>
     <t>周大福</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1514,7 +1514,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2149,6 +2149,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3563,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3574,29 +3575,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3612,23 +3613,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>9987736800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3654,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3660,7 +3662,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3668,15 +3670,15 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3690,25 +3692,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3717,16 +3719,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3735,7 +3737,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3902,7 +3904,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>704.6</v>
@@ -4193,11 +4195,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7247191011235963E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4242,7 +4244,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4608,7 +4610,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4616,7 +4618,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4626,11 +4628,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45381</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4644,10 +4646,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4696,7 +4698,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4717,7 +4719,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4735,7 +4737,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4842,7 +4844,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4878,8 +4880,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4922,17 +4924,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.12</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4942,40 +4944,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>71112.686016000007</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>147618.74723698653</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4998,11 +5000,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5065,7 +5067,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5115,7 +5117,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5155,7 +5157,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5205,12 +5207,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>8.5810990160419792E-2</v>
+        <v>4.1337906696928342E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5237,7 +5239,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7247191011235963E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5254,12 +5256,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5267,22 +5269,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4555926015139296</v>
+        <v>3.7449756989112757</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.099675550651723</v>
+        <v>8.3573612717007375</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2418736488399169</v>
-      </c>
-      <c r="G29" s="271">
+        <v>4.4058537634250303</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.782326565784107</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>7.2672706710441197</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5330,7 +5332,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5340,7 +5342,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5367,7 +5369,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6313,12 +6315,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6804,7 +6803,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6855,7 +6854,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6906,7 +6905,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6957,7 +6956,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7059,7 +7058,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7212,7 +7211,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8283,7 +8282,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8352,7 +8351,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8556,7 +8555,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11506,11 +11505,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11521,11 +11520,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11537,11 +11536,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11755,19 +11754,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11777,18 +11776,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11865,7 +11864,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11925,7 +11924,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11988,7 +11987,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12018,7 +12017,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12155,17 +12154,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5810990160419792E-2</v>
+        <v>4.1337906696928342E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5810990160419792E-2</v>
+        <v>4.1337906696928342E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5810990160419792E-2</v>
+        <v>4.1337906696928342E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12206,17 +12205,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7247191011235963E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1797752808988769E-2</v>
+        <v>2.9769959942451758E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7247191011235963E-2</v>
+        <v>3.7212449928064696E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12247,15 +12246,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12276,14 +12275,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>13.971728470330865</v>
+        <v>11.335413325246007</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>13.971728470330865</v>
+        <v>11.335413325246007</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12301,14 +12300,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9974149538061283</v>
+        <v>7.7198672791180067</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.089145525315899</v>
+        <v>10.003623989159708</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12334,7 +12333,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12351,21 +12350,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69378.99815605543</v>
+        <v>56287.926140304182</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9464183473532692</v>
+        <v>5.635703790302542</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9464183473532692</v>
+        <v>5.635703790302542</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.149954920962251</v>
+        <v>8.2347674094898302</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12414,27 +12413,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69378.99815605543</v>
+        <v>56287.926140304182</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.9044555952502789</v>
+        <v>4.7903482217571609</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9464183473532692</v>
+        <v>5.635703790302542</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9464183473532692</v>
+        <v>5.635703790302542</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9464183473532701</v>
+        <v>5.635703790302542</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.149954920962251</v>
+        <v>8.2347674094898302</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12458,7 +12457,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12475,27 +12474,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60030.711797057666</v>
+        <v>49674.699288036449</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4555926015139296</v>
+        <v>3.7449756989112757</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4733053928573447</v>
+        <v>3.8381384107679826</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2418736488399169</v>
+        <v>4.4058537634250303</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0104419048224882</v>
+        <v>4.9735691160820785</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.782326565784107</v>
+        <v>7.2672706710441197</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12519,7 +12518,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12536,27 +12535,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57028.597522967597</v>
+        <v>47311.12119451254</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1800240983821038</v>
+        <v>4.2676619603342179</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.709861870105307</v>
+        <v>4.7369211005352625</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0941459980965931</v>
+        <v>5.0207787768637857</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4784301260878792</v>
+        <v>5.3046364531923107</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4661407433731792</v>
+        <v>7.751019040266975</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1C56BA-6323-4814-8AB3-7A59D945E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7D030A-69CE-417A-B105-E7013245640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1514,7 +1515,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2150,6 +2151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3578,12 +3582,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3624,15 +3628,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>9987736800</v>
@@ -3640,7 +3644,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45381</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3689,7 +3693,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>263</v>
@@ -3698,16 +3702,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3716,7 +3720,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>263</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3904,7 +3908,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>704.6</v>
@@ -4176,7 +4180,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.3+0.25</f>
@@ -4195,11 +4199,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.7212449928064696E-2</v>
+        <v>7.7138849929873785E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4244,13 +4248,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4592,7 +4596,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4610,7 +4614,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4618,7 +4622,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>266</v>
@@ -4628,16 +4632,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45381</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4646,10 +4650,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4698,7 +4702,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4719,7 +4723,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4881,7 +4885,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4922,19 +4926,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>7.13</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4942,42 +4946,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>147618.74723698653</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>71212.563383999994</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5000,16 +5004,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5034,40 +5038,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5080,29 +5084,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5112,12 +5116,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5127,7 +5131,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5135,7 +5139,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5149,7 +5153,7 @@
         <v>0.79501071628968012</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5157,7 +5161,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5168,14 +5172,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5187,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5203,16 +5207,16 @@
         <v>6.4812855868203439E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>4.1337906696928342E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>11.669886252447871</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5235,11 +5239,11 @@
         <v>7.4842321832102252E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>7.7138849929873785E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5256,12 +5260,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5269,42 +5273,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7449756989112757</v>
+        <v>4.4535325185975516</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>8.3573612717007375</v>
+        <v>10.094597840968474</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4058537634250303</v>
-      </c>
-      <c r="G29" s="272">
+        <v>5.2394500218794722</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>7.2672706710441197</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>8.7779111660595426</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5314,7 +5318,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5325,14 +5329,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5342,7 +5346,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5352,14 +5356,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5369,7 +5373,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5384,14 +5388,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6376,16 +6380,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6403,7 +6407,7 @@
         <v>45381</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6436,7 +6440,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6803,7 +6807,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6854,7 +6858,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6905,7 +6909,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6956,7 +6960,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7058,7 +7062,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7211,7 +7215,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8282,7 +8286,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8351,7 +8355,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8555,7 +8559,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10453,7 +10457,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11505,11 +11509,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11520,11 +11524,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11536,11 +11540,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11754,19 +11758,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11776,18 +11780,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11864,7 +11868,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11924,7 +11928,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11987,7 +11991,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12017,7 +12021,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12150,28 +12154,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1337906696928342E-2</v>
+        <v>8.5690638140559466E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1337906696928342E-2</v>
+        <v>8.5690638140559466E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1337906696928342E-2</v>
+        <v>8.5690638140559466E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12201,21 +12205,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>7.7138849929873785E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9769959942451758E-2</v>
+        <v>6.171107994389903E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.7212449928064696E-2</v>
+        <v>7.7138849929873785E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12246,15 +12250,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12271,24 +12275,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>11.335413325246007</v>
+        <v>13.963987007792692</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>11.335413325246007</v>
+        <v>13.963987007792692</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12296,18 +12300,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>7.7198672791180067</v>
+        <v>8.9937433297707461</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>10.003623989159708</v>
+        <v>12.083067590337864</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12326,14 +12330,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12350,21 +12354,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>56287.926140304182</v>
+        <v>69340.556604868572</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.635703790302542</v>
+        <v>6.9425694722821065</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.635703790302542</v>
+        <v>6.9425694722821065</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.2347674094898302</v>
+        <v>10.144331028689251</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,27 +12417,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>56287.926140304182</v>
+        <v>69340.556604868572</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7903482217571609</v>
+        <v>5.90118405143979</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>5.635703790302542</v>
+        <v>6.9425694722821065</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.635703790302542</v>
+        <v>6.9425694722821065</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.635703790302542</v>
+        <v>6.9425694722821065</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>8.2347674094898302</v>
+        <v>10.144331028689251</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12450,14 +12454,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12474,27 +12478,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>49674.699288036449</v>
+        <v>60000.530775394574</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7449756989112757</v>
+        <v>4.4535325185975516</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.8381384107679826</v>
+        <v>4.4714799468061903</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4058537634250303</v>
+        <v>5.2394500218794722</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.9735691160820785</v>
+        <v>6.0074200969527531</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2672706710441197</v>
+        <v>8.7779111660595426</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12504,21 +12508,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12531,31 +12535,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>47311.12119451254</v>
+        <v>57000.260710023402</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.2676619603342179</v>
+        <v>5.1773582850186708</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.7369211005352625</v>
+        <v>5.7070247095441484</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.0207787768637857</v>
+        <v>6.0910097470807898</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3046364531923107</v>
+        <v>6.4749947846174294</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.751019040266975</v>
+        <v>9.4611210973743969</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE7D030A-69CE-417A-B105-E7013245640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8AE703-6EED-4D10-B5FE-E2831DA592DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
   <si>
     <t>Company Info:</t>
   </si>
@@ -957,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4203,7 +4207,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7138849929873785E-2</v>
+        <v>7.660167130919221E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4938,10 +4942,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.13</v>
+        <v>7.18</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4979,7 +4983,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>71212.563383999994</v>
+        <v>71711.950224</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5211,7 +5215,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.669886252447871</v>
+        <v>11.751722761932076</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5247,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7138849929873785E-2</v>
+        <v>7.660167130919221E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5273,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4535325185975516</v>
+        <v>4.4433295477254262</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.094597840968474</v>
+        <v>10.069451611015149</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2394500218794722</v>
+        <v>5.2274465267357959</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.7779111660595426</v>
+        <v>8.7560448791436087</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12158,17 +12162,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5690638140559466E-2</v>
+        <v>8.5093906677185097E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5690638140559466E-2</v>
+        <v>8.5093906677185097E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5690638140559466E-2</v>
+        <v>8.5093906677185097E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12209,17 +12213,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7138849929873785E-2</v>
+        <v>7.660167130919221E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.171107994389903E-2</v>
+        <v>6.1281337047353772E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7138849929873785E-2</v>
+        <v>7.660167130919221E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12279,14 +12283,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>13.963987007792692</v>
+        <v>13.925653825059237</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>13.963987007792692</v>
+        <v>13.925653825059237</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,14 +12308,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9937433297707461</v>
+        <v>8.9755563209814913</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.083067590337864</v>
+        <v>12.052967966662411</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12354,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69340.556604868572</v>
+        <v>69150.206654980284</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9425694722821065</v>
+        <v>6.9235111056370942</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9425694722821065</v>
+        <v>6.9235111056370942</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.144331028689251</v>
+        <v>10.116483359193827</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12417,27 +12421,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69340.556604868572</v>
+        <v>69150.206654980284</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.90118405143979</v>
+        <v>5.8849844397915287</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9425694722821065</v>
+        <v>6.9235111056370942</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9425694722821065</v>
+        <v>6.9235111056370933</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9425694722821065</v>
+        <v>6.9235111056370933</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.144331028689251</v>
+        <v>10.116483359193827</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12478,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60000.530775394574</v>
+        <v>59851.065965803435</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4535325185975516</v>
+        <v>4.4433295477254262</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4714799468061903</v>
+        <v>4.4624377891515072</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2394500218794722</v>
+        <v>5.2274465267357959</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0074200969527531</v>
+        <v>5.9924552643200846</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7779111660595426</v>
+        <v>8.7560448791436087</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12539,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57000.260710023402</v>
+        <v>56859.930389699723</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1773582850186708</v>
+        <v>5.1641569937584775</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.7070247095441484</v>
+        <v>5.6929744473943007</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0910097470807898</v>
+        <v>6.075478816186445</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4749947846174294</v>
+        <v>6.4579831849785894</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4611210973743969</v>
+        <v>9.4362641191687189</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC8AE703-6EED-4D10-B5FE-E2831DA592DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49736999-C9F1-4100-8132-A935BAC36F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.660167130919221E-2</v>
+        <v>7.6815642458100561E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4852,7 +4852,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.18</v>
+        <v>7.16</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>71711.950224</v>
+        <v>71512.195487999998</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.751722761932076</v>
+        <v>11.718988158138394</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.660167130919221E-2</v>
+        <v>7.6815642458100561E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4433295477254262</v>
+        <v>4.447391369797006</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.069451611015149</v>
+        <v>10.079461946250719</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2274465267357959</v>
+        <v>5.2322251409376541</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.7560448791436087</v>
+        <v>8.7647495184788866</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5093906677185097E-2</v>
+        <v>8.533159915393701E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5093906677185097E-2</v>
+        <v>8.533159915393701E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5093906677185097E-2</v>
+        <v>8.533159915393701E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12213,17 +12213,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.660167130919221E-2</v>
+        <v>7.6815642458100561E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1281337047353772E-2</v>
+        <v>6.1452513966480452E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.660167130919221E-2</v>
+        <v>7.6815642458100561E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12283,14 +12283,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>13.925653825059237</v>
+        <v>13.940912751419102</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>13.925653825059237</v>
+        <v>13.940912751419102</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12308,14 +12308,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9755563209814913</v>
+        <v>8.9827971143863454</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.052967966662411</v>
+        <v>12.064950173299948</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69150.206654980284</v>
+        <v>69225.977453563479</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9235111056370942</v>
+        <v>6.9310974888288488</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9235111056370942</v>
+        <v>6.9310974888288488</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.116483359193827</v>
+        <v>10.12756841678164</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69150.206654980284</v>
+        <v>69225.977453563479</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.8849844397915287</v>
+        <v>5.8914328655045214</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9235111056370942</v>
+        <v>6.9310974888288488</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9235111056370933</v>
+        <v>6.9310974888288488</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9235111056370933</v>
+        <v>6.9310974888288479</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.116483359193827</v>
+        <v>10.12756841678164</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>59851.065965803435</v>
+        <v>59910.565654333492</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4433295477254262</v>
+        <v>4.447391369797006</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4624377891515072</v>
+        <v>4.4660377431775027</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2274465267357959</v>
+        <v>5.2322251409376541</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9924552643200846</v>
+        <v>5.9984125386978047</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7560448791436087</v>
+        <v>8.7647495184788866</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>56859.930389699723</v>
+        <v>56915.793485643189</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1641569937584775</v>
+        <v>5.1694121176507632</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.6929744473943007</v>
+        <v>5.6985676160031762</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.075478816186445</v>
+        <v>6.0816613148832515</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4579831849785894</v>
+        <v>6.4647550137633267</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4362641191687189</v>
+        <v>9.4461589676302644</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49736999-C9F1-4100-8132-A935BAC36F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B351C147-6233-4066-931C-82CDCD60DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6815642458100561E-2</v>
+        <v>7.6495132127955501E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>71512.195487999998</v>
+        <v>71811.827592000001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.718988158138394</v>
+        <v>11.768090063828918</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6815642458100561E-2</v>
+        <v>7.6495132127955501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.447391369797006</v>
+        <v>4.4413082289791639</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.079461946250719</v>
+        <v>10.064470294082691</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2322251409376541</v>
+        <v>5.225068504681369</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.7647495184788866</v>
+        <v>8.7517132992023399</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.533159915393701E-2</v>
+        <v>8.4975556320193171E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.533159915393701E-2</v>
+        <v>8.4975556320193171E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.533159915393701E-2</v>
+        <v>8.4975556320193171E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12213,17 +12213,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6815642458100561E-2</v>
+        <v>7.6495132127955501E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1452513966480452E-2</v>
+        <v>6.1196105702364396E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6815642458100561E-2</v>
+        <v>7.6495132127955501E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12283,14 +12283,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>13.940912751419102</v>
+        <v>13.918061179780866</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>13.940912751419102</v>
+        <v>13.918061179780866</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12308,14 +12308,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9827971143863454</v>
+        <v>8.9719527719197867</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.064950173299948</v>
+        <v>12.047005412221706</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69225.977453563479</v>
+        <v>69112.504081251755</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9310974888288488</v>
+        <v>6.9197362190453156</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9310974888288488</v>
+        <v>6.9197362190453156</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.12756841678164</v>
+        <v>10.110967577272501</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69225.977453563479</v>
+        <v>69112.504081251755</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.8914328655045214</v>
+        <v>5.881775786188518</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9310974888288488</v>
+        <v>6.9197362190453156</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9310974888288488</v>
+        <v>6.9197362190453156</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9310974888288479</v>
+        <v>6.9197362190453156</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.12756841678164</v>
+        <v>10.110967577272501</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>59910.565654333492</v>
+        <v>59821.457885856464</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.447391369797006</v>
+        <v>4.4413082289791639</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4660377431775027</v>
+        <v>4.4606461883935218</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2322251409376541</v>
+        <v>5.225068504681369</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.9984125386978047</v>
+        <v>5.989490820969217</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7647495184788866</v>
+        <v>8.7517132992023399</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>56915.793485643189</v>
+        <v>56832.132084424738</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1694121176507632</v>
+        <v>5.161542007583841</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.6985676160031762</v>
+        <v>5.6901912037194187</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0816613148832515</v>
+        <v>6.0724023618633423</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4647550137633267</v>
+        <v>6.4546135200072658</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4461589676302644</v>
+        <v>9.4313404382374202</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B351C147-6233-4066-931C-82CDCD60DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B25A45-3521-4766-9F33-79A8428A3448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B25A45-3521-4766-9F33-79A8428A3448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5945CF-E2CA-4A41-BEE0-6C3A2AD6D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4644,7 +4644,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D5945CF-E2CA-4A41-BEE0-6C3A2AD6D1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5362CC0C-8808-4F89-99D1-FEDD590AC02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5081,7 +5081,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5128,7 +5128,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4413082289791639</v>
+        <v>4.5445944668624003</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.064470294082691</v>
+        <v>10.371291426900095</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.225068504681369</v>
+        <v>5.3465817257204709</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.7517132992023399</v>
+        <v>9.0185142842609523</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12283,14 +12283,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>13.918061179780866</v>
+        <v>14.241737021171119</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>13.918061179780866</v>
+        <v>14.241737021171119</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12308,14 +12308,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9719527719197867</v>
+        <v>9.1806028363830379</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.047005412221706</v>
+        <v>12.327168328785001</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,21 +12358,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69112.504081251755</v>
+        <v>70719.771618025057</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9197362190453156</v>
+        <v>7.080660317162649</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9197362190453156</v>
+        <v>7.080660317162649</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.110967577272501</v>
+        <v>10.41920620635989</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69112.504081251755</v>
+        <v>70719.771618025057</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.881775786188518</v>
+        <v>6.0185612695882504</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9197362190453156</v>
+        <v>7.080660317162649</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9197362190453156</v>
+        <v>7.0806603171626481</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9197362190453156</v>
+        <v>7.0806603171626481</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.110967577272501</v>
+        <v>10.41920620635989</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>59821.457885856464</v>
+        <v>61212.654580876377</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4413082289791639</v>
+        <v>4.5445944668624003</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4606461883935218</v>
+        <v>4.5643821462631387</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.225068504681369</v>
+        <v>5.3465817257204709</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.989490820969217</v>
+        <v>6.1287813051778031</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7517132992023399</v>
+        <v>9.0185142842609523</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,27 +12543,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>56832.132084424738</v>
+        <v>58153.809574760198</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.161542007583841</v>
+        <v>5.2815778682253249</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.6901912037194187</v>
+        <v>5.8225212317128943</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0724023618633423</v>
+        <v>6.2136210214415595</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4546135200072658</v>
+        <v>6.6047208111702256</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4313404382374202</v>
+        <v>9.7188602453104203</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5362CC0C-8808-4F89-99D1-FEDD590AC02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98DC669-E3E8-4F79-9C1F-52AD66E51931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>9987736800</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45381</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45381</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,450 +3806,450 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>108713</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>94684.4</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>98937.7</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>70163.8</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>56750.8</v>
       </c>
-      <c r="H25" s="150">
+      <c r="H25" s="149">
         <v>66660.899999999994</v>
       </c>
-      <c r="I25" s="150">
+      <c r="I25" s="149">
         <v>59156.4</v>
       </c>
-      <c r="J25" s="150">
+      <c r="J25" s="149">
         <v>51245.5</v>
       </c>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>86428</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>73512.899999999994</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>76598</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>50089.1</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>40654.6</v>
       </c>
-      <c r="H26" s="151">
+      <c r="H26" s="150">
         <v>48059.1</v>
       </c>
-      <c r="I26" s="151">
+      <c r="I26" s="150">
         <v>42943</v>
       </c>
-      <c r="J26" s="151">
+      <c r="J26" s="150">
         <v>36282.800000000003</v>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>13300.2</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>13695.699999999999</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>14003.8</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>11888.399999999998</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>11596.6</v>
       </c>
-      <c r="H27" s="151">
+      <c r="H27" s="150">
         <v>12064.3</v>
       </c>
-      <c r="I27" s="151">
+      <c r="I27" s="150">
         <v>10960.1</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="150">
         <v>10347.099999999999</v>
       </c>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>704.6</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>585.4</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>337.7</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>376</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>559.6</v>
       </c>
-      <c r="H29" s="151">
+      <c r="H29" s="150">
         <v>370.3</v>
       </c>
-      <c r="I29" s="151">
+      <c r="I29" s="150">
         <v>243.7</v>
       </c>
-      <c r="J29" s="151">
+      <c r="J29" s="150">
         <v>236.6</v>
       </c>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>107.9</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>105.1</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>167.6</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>149.69999999999999</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>82.1</v>
       </c>
-      <c r="H30" s="151">
+      <c r="H30" s="150">
         <v>107.2</v>
       </c>
-      <c r="I30" s="151">
+      <c r="I30" s="150">
         <v>108.4</v>
       </c>
-      <c r="J30" s="151">
+      <c r="J30" s="150">
         <v>95.8</v>
       </c>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.3+0.25</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6495132127955501E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4254,10 +4258,10 @@
       <c r="B47" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4356,7 +4360,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4368,7 +4372,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4388,7 +4392,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4456,7 +4460,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4468,7 +4472,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4481,7 +4485,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4529,14 +4533,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4620,7 +4624,7 @@
       <c r="B86" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4628,19 +4632,20 @@
       <c r="B87" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45381</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4654,14 +4659,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4673,12 +4678,12 @@
         <f>C25</f>
         <v>108713</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>108713</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>108713</v>
       </c>
@@ -4691,15 +4696,15 @@
         <f>C26</f>
         <v>86428</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>86428</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>86428</v>
       </c>
@@ -4712,15 +4717,15 @@
         <f>C27+C28</f>
         <v>13300.2</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>13300.2</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>13300.2</v>
       </c>
@@ -4733,12 +4738,12 @@
         <f>C29</f>
         <v>704.6</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>704.6</v>
       </c>
@@ -4751,15 +4756,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4772,12 +4777,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4790,12 +4795,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>143.86666666666667</v>
       </c>
@@ -4804,16 +4809,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4932,17 +4937,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.19</v>
+        <v>7.15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4952,40 +4957,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>71811.827592000001</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>71412.318119999996</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4993,11 +4998,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -5008,22 +5013,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -5052,7 +5057,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5063,7 +5068,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5077,11 +5082,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5090,7 +5095,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5101,7 +5106,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5112,10 +5117,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5127,10 +5132,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5152,14 +5157,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.79501071628968012</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5167,7 +5172,7 @@
       <c r="B21" s="137" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.12234231416665901</v>
       </c>
@@ -5178,7 +5183,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
@@ -5190,14 +5195,14 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5206,30 +5211,30 @@
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.768090063828918</v>
+        <v>11.702620856241554</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.90020160432627339</v>
       </c>
@@ -5238,16 +5243,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>7.4842321832102252E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6495132127955501E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5266,10 +5271,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5277,22 +5282,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.5445944668624003</v>
+        <v>4.4494319334989187</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.371291426900095</v>
+        <v>10.0844911158673</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.3465817257204709</v>
-      </c>
-      <c r="G29" s="273">
+        <v>5.2346258041163747</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.0185142842609523</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>8.7691227094498263</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5304,17 +5309,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5324,7 +5329,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5332,17 +5337,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5352,24 +5357,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5379,7 +5384,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5398,10 +5403,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6383,16 +6388,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6406,11 +6411,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45381</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85">
@@ -6443,7 +6448,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93">
@@ -6507,47 +6512,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>108713</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>94684.4</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>98937.7</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>70163.8</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>56750.8</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="200">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>66660.899999999994</v>
       </c>
-      <c r="I6" s="201">
+      <c r="I6" s="200">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>59156.4</v>
       </c>
-      <c r="J6" s="201">
+      <c r="J6" s="200">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>51245.5</v>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6609,47 +6614,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>86428</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>73512.899999999994</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>76598</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>50089.1</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>40654.6</v>
       </c>
-      <c r="H8" s="200">
+      <c r="H8" s="199">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>48059.1</v>
       </c>
-      <c r="I8" s="200">
+      <c r="I8" s="199">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>42943</v>
       </c>
-      <c r="J8" s="200">
+      <c r="J8" s="199">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>36282.800000000003</v>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6660,47 +6665,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>22285</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>21171.5</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>22339.699999999997</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>20074.700000000004</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>16096.200000000004</v>
       </c>
-      <c r="H9" s="152">
+      <c r="H9" s="151">
         <f t="shared" si="2"/>
         <v>18601.799999999996</v>
       </c>
-      <c r="I9" s="152">
+      <c r="I9" s="151">
         <f t="shared" si="2"/>
         <v>16213.400000000001</v>
       </c>
-      <c r="J9" s="152">
+      <c r="J9" s="151">
         <f t="shared" si="2"/>
         <v>14962.699999999997</v>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6711,47 +6716,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>13300.2</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13695.699999999999</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>14003.8</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>11888.399999999998</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>11596.6</v>
       </c>
-      <c r="H10" s="200">
+      <c r="H10" s="199">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>12064.3</v>
       </c>
-      <c r="I10" s="200">
+      <c r="I10" s="199">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>10960.1</v>
       </c>
-      <c r="J10" s="200">
+      <c r="J10" s="199">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>10347.099999999999</v>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6762,47 +6767,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6813,47 +6818,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>140.13333333333333</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>223.46666666666667</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>199.6</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>109.46666666666665</v>
       </c>
-      <c r="H12" s="200">
+      <c r="H12" s="199">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>142.93333333333334</v>
       </c>
-      <c r="I12" s="200">
+      <c r="I12" s="199">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>144.53333333333333</v>
       </c>
-      <c r="J12" s="200">
+      <c r="J12" s="199">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>127.73333333333333</v>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6861,50 +6866,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>7.7474923711473784E-2</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>8.1995370150441463E-2</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>0.11382935359829437</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>7.7358087169402678E-2</v>
       </c>
-      <c r="H13" s="230">
+      <c r="H13" s="229">
         <f t="shared" si="3"/>
         <v>9.5926797667998234E-2</v>
       </c>
-      <c r="I13" s="230">
+      <c r="I13" s="229">
         <f t="shared" si="3"/>
         <v>8.6360337455738803E-2</v>
       </c>
-      <c r="J13" s="230">
+      <c r="J13" s="229">
         <f t="shared" si="3"/>
         <v>8.7575819665466528E-2</v>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6912,50 +6917,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>7335.6666666666679</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>8112.4333333333316</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>7986.7000000000062</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>4390.1333333333378</v>
       </c>
-      <c r="H14" s="231">
+      <c r="H14" s="230">
         <f t="shared" si="4"/>
         <v>6394.566666666663</v>
       </c>
-      <c r="I14" s="231">
+      <c r="I14" s="230">
         <f t="shared" si="4"/>
         <v>5108.7666666666673</v>
       </c>
-      <c r="J14" s="231">
+      <c r="J14" s="230">
         <f t="shared" si="4"/>
         <v>4487.866666666665</v>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6963,50 +6968,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.20519834598082398</v>
       </c>
-      <c r="D15" s="233">
+      <c r="D15" s="232">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-9.5750144839402543E-2</v>
       </c>
-      <c r="E15" s="233">
+      <c r="E15" s="232">
         <f t="shared" si="5"/>
         <v>1.5742839136730476E-2</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>0.8192385956387046</v>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f t="shared" si="5"/>
         <v>-0.31345882181226664</v>
       </c>
-      <c r="H15" s="233">
+      <c r="H15" s="232">
         <f t="shared" si="5"/>
         <v>0.25168501203812965</v>
       </c>
-      <c r="I15" s="233">
+      <c r="I15" s="232">
         <f t="shared" si="5"/>
         <v>0.1383508125612769</v>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7017,47 +7022,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7068,47 +7073,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>704.6</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>585.4</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>337.7</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>376</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>559.6</v>
       </c>
-      <c r="H17" s="200">
+      <c r="H17" s="199">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>370.3</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="199">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>243.7</v>
       </c>
-      <c r="J17" s="200">
+      <c r="J17" s="199">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>236.6</v>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7119,47 +7124,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7170,47 +7175,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7221,47 +7226,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153">
+      <c r="H20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="153">
+      <c r="I20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="153">
+      <c r="J20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7272,47 +7277,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7323,47 +7328,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>6750.2666666666682</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>7774.7333333333318</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>7610.7000000000062</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>3830.5333333333379</v>
       </c>
-      <c r="H22" s="162">
+      <c r="H22" s="161">
         <f t="shared" si="8"/>
         <v>6024.2666666666628</v>
       </c>
-      <c r="I22" s="162">
+      <c r="I22" s="161">
         <f t="shared" si="8"/>
         <v>4865.0666666666675</v>
       </c>
-      <c r="J22" s="162">
+      <c r="J22" s="161">
         <f t="shared" si="8"/>
         <v>4251.2666666666646</v>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7374,47 +7379,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>5.346920928896419E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>5.8936583324657836E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>8.1352848619943685E-2</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>5.0623074917005628E-2</v>
       </c>
-      <c r="H23" s="154">
+      <c r="H23" s="153">
         <f t="shared" si="9"/>
         <v>6.7778862871638354E-2</v>
       </c>
-      <c r="I23" s="154">
+      <c r="I23" s="153">
         <f t="shared" si="9"/>
         <v>6.1680562035553221E-2</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="153">
         <f t="shared" si="9"/>
         <v>6.2219121678976662E-2</v>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7425,7 +7430,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>6102.2499999999991</v>
       </c>
@@ -7473,50 +7478,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.20533509787267629</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.13176872089932321</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>2.1552988993565038E-2</v>
       </c>
-      <c r="F25" s="234">
+      <c r="F25" s="233">
         <f t="shared" si="10"/>
         <v>0.98685126527202427</v>
       </c>
-      <c r="G25" s="234">
+      <c r="G25" s="233">
         <f t="shared" si="10"/>
         <v>-0.36414944004249367</v>
       </c>
-      <c r="H25" s="234">
+      <c r="H25" s="233">
         <f t="shared" si="10"/>
         <v>0.23827011620258615</v>
       </c>
-      <c r="I25" s="234">
+      <c r="I25" s="233">
         <f t="shared" si="10"/>
         <v>0.14438049836127348</v>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7633,43 +7638,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7684,43 +7689,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7735,43 +7740,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7786,43 +7791,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7837,43 +7842,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7888,43 +7893,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7939,43 +7944,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8041,43 +8046,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8092,43 +8097,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8143,43 +8148,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8241,47 +8246,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8310,47 +8315,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.77639928013484794</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.77420437305496292</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.71388807333696291</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.71637051812485453</v>
       </c>
-      <c r="H42" s="157">
+      <c r="H42" s="156">
         <f t="shared" si="34"/>
         <v>0.72094886207656972</v>
       </c>
-      <c r="I42" s="157">
+      <c r="I42" s="156">
         <f t="shared" si="34"/>
         <v>0.72592314610084452</v>
       </c>
-      <c r="J42" s="157">
+      <c r="J42" s="156">
         <f t="shared" si="34"/>
         <v>0.70801924071381883</v>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8361,47 +8366,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.14464579170380759</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>0.14154159637832697</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>0.16943780125933883</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>0.20434249385030695</v>
       </c>
-      <c r="H43" s="154">
+      <c r="H43" s="153">
         <f t="shared" si="35"/>
         <v>0.18098015478338877</v>
       </c>
-      <c r="I43" s="154">
+      <c r="I43" s="153">
         <f t="shared" si="35"/>
         <v>0.18527327558810205</v>
       </c>
-      <c r="J43" s="154">
+      <c r="J43" s="153">
         <f t="shared" si="35"/>
         <v>0.20191236303675442</v>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8412,47 +8417,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154">
+      <c r="H44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154">
+      <c r="I44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J44" s="154">
+      <c r="J44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8463,47 +8468,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>6.1826446595215261E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>3.4132590508976859E-3</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>5.3588887717027868E-3</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>9.8606539467285034E-3</v>
       </c>
-      <c r="H45" s="154">
+      <c r="H45" s="153">
         <f t="shared" si="37"/>
         <v>5.5549805058137539E-3</v>
       </c>
-      <c r="I45" s="154">
+      <c r="I45" s="153">
         <f t="shared" si="37"/>
         <v>4.1195880750011828E-3</v>
       </c>
-      <c r="J45" s="154">
+      <c r="J45" s="153">
         <f t="shared" si="37"/>
         <v>4.616990760164307E-3</v>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8514,47 +8519,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.4800044498706581E-3</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>2.2586604162686892E-3</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>2.8447718054039261E-3</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>1.9289008554358115E-3</v>
       </c>
-      <c r="H46" s="154">
+      <c r="H46" s="153">
         <f t="shared" si="38"/>
         <v>2.1441854720433318E-3</v>
       </c>
-      <c r="I46" s="154">
+      <c r="I46" s="153">
         <f t="shared" si="38"/>
         <v>2.4432408553146123E-3</v>
       </c>
-      <c r="J46" s="154">
+      <c r="J46" s="153">
         <f t="shared" si="38"/>
         <v>2.4925765839602177E-3</v>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8565,47 +8570,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H47" s="154">
+      <c r="H47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I47" s="154">
+      <c r="I47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J47" s="154">
+      <c r="J47" s="153">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8616,47 +8621,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>7.1292279051952262E-2</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>7.8582111099543772E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>0.10847046482659158</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>6.749743322267418E-2</v>
       </c>
-      <c r="H48" s="154">
+      <c r="H48" s="153">
         <f t="shared" si="40"/>
         <v>9.0371817162184481E-2</v>
       </c>
-      <c r="I48" s="154">
+      <c r="I48" s="153">
         <f t="shared" si="40"/>
         <v>8.2240749380737624E-2</v>
       </c>
-      <c r="J48" s="154">
+      <c r="J48" s="153">
         <f t="shared" si="40"/>
         <v>8.295882890530222E-2</v>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8685,47 +8690,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8736,47 +8741,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8804,47 +8809,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8854,47 +8859,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8904,47 +8909,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.6599205211192604E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>8.6722499851857676E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>4.3435573352998177E-2</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>4.9404128398176213E-2</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>0.1460893174144591</v>
       </c>
-      <c r="H55" s="154">
+      <c r="H55" s="153">
         <f t="shared" si="45"/>
         <v>6.1468062502766631E-2</v>
       </c>
-      <c r="I55" s="154">
+      <c r="I55" s="153">
         <f t="shared" si="45"/>
         <v>5.009181100635824E-2</v>
       </c>
-      <c r="J55" s="154">
+      <c r="J55" s="153">
         <f t="shared" si="45"/>
         <v>5.5654001160438483E-2</v>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8954,47 +8959,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10292,8 +10297,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10342,7 +10347,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10439,7 +10444,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45381</v>
       </c>
@@ -10486,7 +10491,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10514,7 +10519,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10542,7 +10547,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10570,7 +10575,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10583,7 +10588,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10598,7 +10603,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10625,7 +10630,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10647,7 +10652,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10669,7 +10674,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10690,7 +10695,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10715,7 +10720,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10742,7 +10747,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10763,7 +10768,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10928,7 +10933,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10957,7 +10962,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10983,7 +10988,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11010,7 +11015,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11037,7 +11042,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11053,7 +11058,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11067,7 +11072,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11094,7 +11099,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11120,7 +11125,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11147,7 +11152,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11174,7 +11179,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11195,7 +11200,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11216,7 +11221,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11237,7 +11242,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11258,7 +11263,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11404,7 +11409,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11513,11 +11518,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11528,11 +11533,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11544,11 +11549,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11644,8 +11649,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11725,8 +11730,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11762,19 +11767,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11784,18 +11789,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11806,17 +11811,17 @@
         <f>Data!C6</f>
         <v>108713</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>108713</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>108713</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11827,23 +11832,23 @@
         <f>Data!C8</f>
         <v>86428</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>86428</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>86428</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.79501071628968012</v>
       </c>
@@ -11853,21 +11858,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>22285</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>22285</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>22285</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11878,23 +11883,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>13300.2</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>13300.2</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>13300.2</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.12234231416665901</v>
       </c>
@@ -11908,54 +11913,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>8.1323607418922597E-2</v>
       </c>
@@ -11969,27 +11974,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12001,23 +12006,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>704.6</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>704.6</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>704.6</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
@@ -12031,23 +12036,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12057,27 +12062,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
@@ -12087,49 +12092,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
@@ -12139,69 +12144,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4975556320193171E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>8.5450944047858593E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4975556320193171E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>8.5450944047858593E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.4975556320193171E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>8.5450944047858593E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.90020160432627339</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.72016128346101871</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.90020160432627339</v>
       </c>
@@ -12211,21 +12216,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6495132127955501E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1196105702364396E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6495132127955501E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12247,22 +12252,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12272,9 +12277,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12282,15 +12287,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>14.241737021171119</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>13.948579268723218</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>14.241737021171119</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>13.948579268723218</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12298,24 +12303,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>9.1806028363830379</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.9864344633483544</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>12.327168328785001</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>12.070970006616516</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12336,14 +12344,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12358,21 +12366,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>70719.771618025057</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>69264.046851421823</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.080660317162649</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>6.9349091028732177</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.080660317162649</v>
+        <v>6.9349091028732177</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.41920620635989</v>
+        <v>10.133137864055312</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12384,14 +12392,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12402,17 +12410,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12421,27 +12429,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70719.771618025057</v>
+        <v>69264.046851421823</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.0185612695882504</v>
+        <v>5.8946727374422361</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>7.080660317162649</v>
+        <v>6.9349091028732177</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.0806603171626481</v>
+        <v>6.9349091028732186</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.0806603171626481</v>
+        <v>6.9349091028732186</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.41920620635989</v>
+        <v>10.133137864055312</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12460,14 +12468,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12482,27 +12490,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>61212.654580876377</v>
+        <v>59940.458162297473</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.5445944668624003</v>
+        <v>4.4494319334989187</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5643821462631387</v>
+        <v>4.4678461484595742</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.3465817257204709</v>
+        <v>5.2346258041163747</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.1287813051778031</v>
+        <v>6.0014054597731761</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.0185142842609523</v>
+        <v>8.7691227094498263</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12521,14 +12529,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12543,27 +12551,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>58153.809574760198</v>
+        <v>56943.859122564885</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.2815778682253249</v>
+        <v>5.1720523354705774</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.8225212317128943</v>
+        <v>5.7013776256663959</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.2136210214415595</v>
+        <v>6.0847674534947966</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.6047208111702256</v>
+        <v>6.4681572813231973</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7188602453104203</v>
+        <v>9.4511302867525693</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98DC669-E3E8-4F79-9C1F-52AD66E51931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A18DDCE-A32F-49A4-9A0F-6AF5DADA3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>周大福</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3704,7 +3707,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4211,7 +4214,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.7355836849507739E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4633,9 +4636,11 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4947,10 +4952,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4988,7 +4993,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>71412.318119999996</v>
+        <v>71012.808648000006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5026,7 +5031,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5083,10 +5088,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5133,7 +5138,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5220,7 +5225,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.702620856241554</v>
+        <v>11.637151648654187</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5252,7 +5257,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.7355836849507739E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5282,20 +5287,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4494319334989187</v>
+        <v>4.4576592526775345</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.0844911158673</v>
+        <v>9.2079576367017797</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2346258041163747</v>
+        <v>5.2443050031500409</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.7691227094498263</v>
+        <v>8.0069196840885049</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12167,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5450944047858593E-2</v>
+        <v>8.5931680723233331E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5450944047858593E-2</v>
+        <v>8.5931680723233331E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5450944047858593E-2</v>
+        <v>8.5931680723233331E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12218,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.7355836849507739E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1538461538461542E-2</v>
+        <v>6.1884669479606191E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6923076923076927E-2</v>
+        <v>7.7355836849507739E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12277,7 +12282,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12288,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.948579268723218</v>
+        <v>13.97949515667163</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.948579268723218</v>
+        <v>13.97949515667163</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12309,21 +12314,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.9864344633483544</v>
+        <v>9.0010981099932046</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.070970006616516</v>
+        <v>12.095243013062877</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12366,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69264.046851421823</v>
+        <v>69417.564960331569</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.9349091028732177</v>
+        <v>6.950279763112257</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.9349091028732177</v>
+        <v>6.950279763112257</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.133137864055312</v>
+        <v>9.2542741656936158</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12429,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69264.046851421823</v>
+        <v>69417.564960331569</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.8946727374422361</v>
+        <v>5.9077377986454183</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.9349091028732177</v>
+        <v>6.950279763112257</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.9349091028732186</v>
+        <v>6.950279763112257</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.9349091028732186</v>
+        <v>6.950279763112257</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.133137864055312</v>
+        <v>9.2542741656936158</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12490,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>59940.458162297473</v>
+        <v>60060.989911326244</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4494319334989187</v>
+        <v>4.4576592526775345</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4678461484595742</v>
+        <v>4.4751365724260292</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2346258041163747</v>
+        <v>5.2443050031500409</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0014054597731761</v>
+        <v>6.0134734338740525</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.7691227094498263</v>
+        <v>8.0069196840885049</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12551,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>56943.859122564885</v>
+        <v>57057.025594888451</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1720523354705774</v>
+        <v>5.1826985256614764</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.7013776256663959</v>
+        <v>5.7127081677691436</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0847674534947966</v>
+        <v>6.0972923831311494</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4681572813231973</v>
+        <v>6.4818765984931552</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.4511302867525693</v>
+        <v>8.6305969248910603</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A18DDCE-A32F-49A4-9A0F-6AF5DADA3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB6CA26-9994-4E17-BCBB-B1DEE333620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7355836849507739E-2</v>
+        <v>7.9365079365079375E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.11</v>
+        <v>6.93</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>71012.808648000006</v>
+        <v>69215.016023999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.637151648654187</v>
+        <v>11.342540214511043</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7355836849507739E-2</v>
+        <v>7.9365079365079375E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5287,20 +5287,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4576592526775345</v>
+        <v>4.4960187451917815</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.2079576367017797</v>
+        <v>9.2941415884453527</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2443050031500409</v>
+        <v>5.2894338178726841</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.0069196840885049</v>
+        <v>8.0818622508220468</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12172,17 +12172,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5931680723233331E-2</v>
+        <v>8.8163672430330298E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5931680723233331E-2</v>
+        <v>8.8163672430330298E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5931680723233331E-2</v>
+        <v>8.8163672430330298E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12223,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7355836849507739E-2</v>
+        <v>7.9365079365079375E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1884669479606191E-2</v>
+        <v>6.3492063492063502E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7355836849507739E-2</v>
+        <v>7.9365079365079375E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12293,14 +12293,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.97949515667163</v>
+        <v>14.123752136761382</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.97949515667163</v>
+        <v>14.123752136761382</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.0010981099932046</v>
+        <v>9.0694302927000052</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.095243013062877</v>
+        <v>12.208451162067567</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12371,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>69417.564960331569</v>
+        <v>70133.897572785223</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.950279763112257</v>
+        <v>7.02200097751727</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.950279763112257</v>
+        <v>7.02200097751727</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>9.2542741656936158</v>
+        <v>9.3497707218355917</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69417.564960331569</v>
+        <v>70133.897572785223</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.9077377986454183</v>
+        <v>5.9687008308896798</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>6.950279763112257</v>
+        <v>7.02200097751727</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>6.950279763112257</v>
+        <v>7.0220009775172709</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>6.950279763112257</v>
+        <v>7.0220009775172709</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>9.2542741656936158</v>
+        <v>9.3497707218355917</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60060.989911326244</v>
+        <v>60623.144263074872</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4576592526775345</v>
+        <v>4.4960187451917815</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4751365724260292</v>
+        <v>4.5091097439400025</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2443050031500409</v>
+        <v>5.2894338178726841</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0134734338740525</v>
+        <v>6.0697578918053665</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0069196840885049</v>
+        <v>8.0818622508220468</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12556,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57057.025594888451</v>
+        <v>57584.849448786677</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.1826985256614764</v>
+        <v>5.2323597880407302</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.7127081677691436</v>
+        <v>5.7655553607286363</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.0972923831311494</v>
+        <v>6.1557173976949775</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.4818765984931552</v>
+        <v>6.5458794346613187</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6305969248910603</v>
+        <v>8.7158164863288192</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB6CA26-9994-4E17-BCBB-B1DEE333620A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03216494-5925-4C26-A27C-1F9550BFDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3707,7 +3715,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4214,7 +4222,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9365079365079375E-2</v>
+        <v>7.7683615819209045E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4335,7 +4343,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4447,7 +4455,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4636,7 +4644,7 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4952,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.93</v>
+        <v>7.08</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4993,7 +5001,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>69215.016023999997</v>
+        <v>70713.176544000002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5088,10 +5096,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5138,7 +5146,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5225,7 +5233,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.342540214511043</v>
+        <v>11.588049742963664</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5257,7 +5265,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9365079365079375E-2</v>
+        <v>7.7683615819209045E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5287,20 +5295,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4960187451917815</v>
+        <v>5.3324403496965465</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>9.2941415884453527</v>
+        <v>11.578102571023182</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2894338178726841</v>
+        <v>6.2734592349371141</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.0818622508220468</v>
+        <v>10.067915279150593</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12172,17 +12180,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8163672430330298E-2</v>
+        <v>8.6295798014433475E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8163672430330298E-2</v>
+        <v>8.6295798014433475E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8163672430330298E-2</v>
+        <v>8.6295798014433475E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,17 +12231,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9365079365079375E-2</v>
+        <v>7.7683615819209045E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3492063492063502E-2</v>
+        <v>6.2146892655367242E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9365079365079375E-2</v>
+        <v>7.7683615819209045E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12282,7 +12290,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12293,14 +12301,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>14.123752136761382</v>
+        <v>16.727503237189438</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>14.123752136761382</v>
+        <v>16.727503237189438</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12321,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.0694302927000052</v>
+        <v>10.765725660582925</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.208451162067567</v>
+        <v>14.470608984775101</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12371,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>70133.897572785223</v>
+        <v>83063.267276686092</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.02200097751727</v>
+        <v>8.316525449157421</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.02200097751727</v>
+        <v>8.316525449157421</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>9.3497707218355917</v>
+        <v>11.638147751827873</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12434,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70133.897572785223</v>
+        <v>83063.267276686092</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.9687008308896798</v>
+        <v>7.0690466317838077</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>7.02200097751727</v>
+        <v>8.316525449157421</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.0220009775172709</v>
+        <v>8.316525449157421</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.0220009775172709</v>
+        <v>8.316525449157421</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>9.3497707218355917</v>
+        <v>11.638147751827873</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12495,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>60623.144263074872</v>
+        <v>71856.27434741694</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.4960187451917815</v>
+        <v>5.3324403496965465</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.5091097439400025</v>
+        <v>5.3524683370456438</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.2894338178726841</v>
+        <v>6.2734592349371141</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.0697578918053665</v>
+        <v>7.1944501328285853</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>8.0818622508220468</v>
+        <v>10.067915279150593</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12556,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>57584.849448786677</v>
+        <v>68261.15612871584</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.2323597880407302</v>
+        <v>6.2007434907401766</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.7655553607286363</v>
+        <v>6.834496893101532</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.1557173976949775</v>
+        <v>7.2949923420472675</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.5458794346613187</v>
+        <v>7.7554877909930031</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.7158164863288192</v>
+        <v>10.853031515489233</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03216494-5925-4C26-A27C-1F9550BFDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B929D300-16B6-4492-A6B4-508B1492E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>216</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3715,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>232</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4222,7 +4226,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4644,7 +4648,7 @@
         <v>250</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4960,10 +4964,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5001,7 +5005,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>70713.176544000002</v>
+        <v>70313.667071999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5071,7 +5075,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5082,7 +5086,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5109,7 +5113,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5233,7 +5237,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.588049742963664</v>
+        <v>11.522580535376298</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5265,7 +5269,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.8125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5295,20 +5299,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3324403496965465</v>
+        <v>5.3424907967067616</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.578102571023182</v>
+        <v>11.601832073163457</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2734592349371141</v>
+        <v>6.2852832902432496</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.067915279150593</v>
+        <v>10.088549628837789</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5343,8 +5347,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6370,12 +6374,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8801,118 +8805,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="e">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8920,107 +8925,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.6599205211192604E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>8.6722499851857676E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>4.3435573352998177E-2</v>
-      </c>
-      <c r="F55" s="153">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>4.9404128398176213E-2</v>
-      </c>
-      <c r="G55" s="153">
+        <v/>
+      </c>
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.1460893174144591</v>
-      </c>
-      <c r="H55" s="153">
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>6.1468062502766631E-2</v>
-      </c>
-      <c r="I55" s="153">
+        <v/>
+      </c>
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>5.009181100635824E-2</v>
-      </c>
-      <c r="J55" s="153">
+        <v/>
+      </c>
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>5.5654001160438483E-2</v>
-      </c>
-      <c r="K55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.6599205211192604E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>8.6722499851857676E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>4.3435573352998177E-2</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>4.9404128398176213E-2</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.1460893174144591</v>
+      </c>
+      <c r="H56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.1468062502766631E-2</v>
+      </c>
+      <c r="I56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.009181100635824E-2</v>
+      </c>
+      <c r="J56" s="153">
+        <f t="shared" si="46"/>
+        <v>5.5654001160438483E-2</v>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9588,7 +9640,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10271,6 +10325,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12180,17 +12235,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.678611504860638E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.678611504860638E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6295798014433475E-2</v>
+        <v>8.678611504860638E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12231,17 +12286,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2146892655367242E-2</v>
+        <v>6.2500000000000014E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7683615819209045E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12301,14 +12356,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.727503237189438</v>
+        <v>16.76528846633143</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.727503237189438</v>
+        <v>16.76528846633143</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12384,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.765725660582925</v>
+        <v>10.78363271859976</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.470608984775101</v>
+        <v>14.50026672400905</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12434,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83063.267276686092</v>
+        <v>83250.896269658246</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.316525449157421</v>
+        <v>8.3353113860247348</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.316525449157421</v>
+        <v>8.3353113860247348</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.638147751827873</v>
+        <v>11.664436796484191</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12442,27 +12497,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83063.267276686092</v>
+        <v>83250.896269658246</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0690466317838077</v>
+        <v>7.0850146781210244</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.316525449157421</v>
+        <v>8.3353113860247348</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.316525449157421</v>
+        <v>8.3353113860247348</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.316525449157421</v>
+        <v>8.3353113860247348</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.638147751827873</v>
+        <v>11.664436796484191</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12558,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>71856.27434741694</v>
+        <v>72003.544904527647</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3324403496965465</v>
+        <v>5.3424907967067616</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3524683370456438</v>
+        <v>5.3613713096892512</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2734592349371141</v>
+        <v>6.2852832902432496</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.1944501328285853</v>
+        <v>7.2091952707972489</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.067915279150593</v>
+        <v>10.088549628837789</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12619,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68261.15612871584</v>
+        <v>68399.430898952894</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2007434907401766</v>
+        <v>6.213752737413893</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.834496893101532</v>
+        <v>6.8483413478569926</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.2949923420472675</v>
+        <v>7.3102973381339922</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7554877909930031</v>
+        <v>7.7722533284109918</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.853031515489233</v>
+        <v>10.876493212660989</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B929D300-16B6-4492-A6B4-508B1492E1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C064FF33-8F47-4CCE-A3AC-4BF4523E3838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8125E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.04</v>
+        <v>7.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>70313.667071999997</v>
+        <v>70413.544439999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.522580535376298</v>
+        <v>11.53894783727314</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8125E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,20 +5299,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3424907967067616</v>
+        <v>5.3399660548693753</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.601832073163457</v>
+        <v>11.595870798973728</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2852832902432496</v>
+        <v>6.2823130057286765</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.088549628837789</v>
+        <v>10.083365912151068</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10365,8 +10365,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12235,17 +12235,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.678611504860638E-2</v>
+        <v>8.6663014176197012E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.678611504860638E-2</v>
+        <v>8.6663014176197012E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.678611504860638E-2</v>
+        <v>8.6663014176197012E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8125E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2500000000000014E-2</v>
+        <v>6.2411347517730503E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8125E-2</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12356,14 +12356,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.76528846633143</v>
+        <v>16.755795549002439</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.76528846633143</v>
+        <v>16.755795549002439</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12384,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.78363271859976</v>
+        <v>10.779134665472014</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.50026672400905</v>
+        <v>14.492816170922181</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12434,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83250.896269658246</v>
+        <v>83203.757571303038</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3353113860247348</v>
+        <v>8.3305917283786499</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3353113860247348</v>
+        <v>8.3305917283786499</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.664436796484191</v>
+        <v>11.65783210641753</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12457,7 +12457,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12496,28 +12496,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>83250.896269658246</v>
+        <f>C97+C98+$C$99</f>
+        <v>83203.757571303038</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0850146781210244</v>
+        <v>7.0810029691218519</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3353113860247348</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>8.3305917283786499</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3353113860247348</v>
+        <v>8.3305917283786499</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3353113860247348</v>
+        <v>8.3305917283786499</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>11.664436796484191</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>11.65783210641753</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>72003.544904527647</v>
+        <v>71966.547913785005</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3424907967067616</v>
+        <v>5.3399660548693753</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3613713096892512</v>
+        <v>5.3591349823200005</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2852832902432496</v>
+        <v>6.2823130057286765</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2091952707972489</v>
+        <v>7.2054910291373524</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.088549628837789</v>
+        <v>10.083365912151068</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12619,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68399.430898952894</v>
+        <v>68364.693625193933</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.213752737413893</v>
+        <v>6.2104845119956131</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.8483413478569926</v>
+        <v>6.8448633553493252</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3102973381339922</v>
+        <v>7.3064523670536632</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7722533284109918</v>
+        <v>7.7680413787580012</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.876493212660989</v>
+        <v>10.870599009284298</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C064FF33-8F47-4CCE-A3AC-4BF4523E3838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DFDE91-B5FE-4AFD-B6FC-AA7EC7AFC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8796561604584522E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>7.05</v>
+        <v>6.98</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>70413.544439999998</v>
+        <v>69714.402864000003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.53894783727314</v>
+        <v>11.424376723995252</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8796561604584522E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,20 +5299,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3399660548693753</v>
+        <v>5.3578118132135311</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.595870798973728</v>
+        <v>11.638010890244939</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.2823130057286765</v>
+        <v>6.3033080155453307</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.083365912151068</v>
+        <v>10.120009469778209</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12235,17 +12235,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6663014176197012E-2</v>
+        <v>8.7532127498880938E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6663014176197012E-2</v>
+        <v>8.7532127498880938E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6663014176197012E-2</v>
+        <v>8.7532127498880938E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8796561604584522E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2411347517730503E-2</v>
+        <v>6.3037249283667621E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8014184397163122E-2</v>
+        <v>7.8796561604584522E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12356,14 +12356,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.755795549002439</v>
+        <v>16.822909263510056</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.755795549002439</v>
+        <v>16.822909263510056</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12384,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.779134665472014</v>
+        <v>10.810923828436449</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.492816170922181</v>
+        <v>14.545483935750468</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12434,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83203.757571303038</v>
+        <v>83537.02215520601</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3305917283786499</v>
+        <v>8.3639591058512881</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3305917283786499</v>
+        <v>8.3639591058512881</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.65783210641753</v>
+        <v>11.70452642263067</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>83203.757571303038</v>
+        <v>83537.02215520601</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0810029691218519</v>
+        <v>7.1093652399735943</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.3305917283786499</v>
+        <v>8.3639591058512881</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3305917283786499</v>
+        <v>8.3639591058512881</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3305917283786499</v>
+        <v>8.3639591058512881</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.65783210641753</v>
+        <v>11.70452642263067</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>71966.547913785005</v>
+        <v>72228.078673323078</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3399660548693753</v>
+        <v>5.3578118132135311</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3591349823200005</v>
+        <v>5.3749398145805234</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.2823130057286765</v>
+        <v>6.3033080155453307</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.2054910291373524</v>
+        <v>7.231676216510138</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.083365912151068</v>
+        <v>10.120009469778209</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12619,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68364.693625193933</v>
+        <v>68610.253169538541</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2104845119956131</v>
+        <v>6.2335885265935627</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.8448633553493252</v>
+        <v>6.8694494602159057</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3064523670536632</v>
+        <v>7.3336335606983099</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7680413787580012</v>
+        <v>7.7978176611807131</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.870599009284298</v>
+        <v>10.912267946204439</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DFDE91-B5FE-4AFD-B6FC-AA7EC7AFC299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A437B6D-8E96-493E-9863-46EBDD72183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8796561604584522E-2</v>
+        <v>7.9136690647482022E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.98</v>
+        <v>6.95</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>69714.402864000003</v>
+        <v>69414.770759999999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5100,10 +5100,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5150,7 +5150,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.424376723995252</v>
+        <v>11.375274818304726</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.8796561604584522E-2</v>
+        <v>7.9136690647482022E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,20 +5299,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.3578118132135311</v>
+        <v>4.8898733927168649</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>11.638010890244939</v>
+        <v>10.361342246320559</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.3033080155453307</v>
+        <v>5.7527922267257239</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.120009469778209</v>
+        <v>9.0098628228874436</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12235,17 +12235,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7532127498880938E-2</v>
+        <v>8.7909964020458836E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7532127498880938E-2</v>
+        <v>8.7909964020458836E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7532127498880938E-2</v>
+        <v>8.7909964020458836E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8796561604584522E-2</v>
+        <v>7.9136690647482022E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3037249283667621E-2</v>
+        <v>6.3309352517985612E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8796561604584522E-2</v>
+        <v>7.9136690647482022E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12356,14 +12356,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.822909263510056</v>
+        <v>15.358044703452046</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.822909263510056</v>
+        <v>15.358044703452046</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12384,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.810923828436449</v>
+        <v>9.8650455280382321</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.545483935750468</v>
+        <v>13.276794458799591</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12434,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>83537.02215520601</v>
+        <v>76262.98760558317</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3639591058512881</v>
+        <v>7.6356625262274811</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3639591058512881</v>
+        <v>7.6356625262274811</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.70452642263067</v>
+        <v>10.422235309530199</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>83537.02215520601</v>
+        <v>76262.98760558317</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1093652399735943</v>
+        <v>6.4903131472933584</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.3639591058512881</v>
+        <v>7.6356625262274811</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3639591058512881</v>
+        <v>7.6356625262274811</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3639591058512881</v>
+        <v>7.6356625262274811</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.70452642263067</v>
+        <v>10.422235309530199</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>72228.078673323078</v>
+        <v>65928.184922246088</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.3578118132135311</v>
+        <v>4.8898733927168649</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.3749398145805234</v>
+        <v>4.9046711291990421</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>6.3033080155453307</v>
+        <v>5.7527922267257239</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.231676216510138</v>
+        <v>6.6009133242524065</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.120009469778209</v>
+        <v>9.0098628228874436</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12619,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>68610.253169538541</v>
+        <v>62624.775967291003</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2335885265935627</v>
+        <v>5.6900932700051117</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.8694494602159057</v>
+        <v>6.2701668277132612</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3336335606983099</v>
+        <v>6.6942273764766025</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7978176611807131</v>
+        <v>7.1182879252399438</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.912267946204439</v>
+        <v>9.7160490662088215</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A437B6D-8E96-493E-9863-46EBDD72183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D338AE5-C7F1-4984-A155-041F7941B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4226,7 +4237,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9136690647482022E-2</v>
+        <v>8.1723625557206539E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4964,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5005,7 +5016,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>69414.770759999999</v>
+        <v>67217.468664000015</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5237,7 +5248,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.375274818304726</v>
+        <v>11.015194176574218</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5280,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>7.9136690647482022E-2</v>
+        <v>8.1723625557206539E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,20 +5310,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.8898733927168649</v>
+        <v>4.9440253185818017</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.361342246320559</v>
+        <v>10.486131523329432</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.7527922267257239</v>
+        <v>5.8165003748021196</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.0098628228874436</v>
+        <v>9.1183752376777676</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12235,17 +12246,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7909964020458836E-2</v>
+        <v>9.0783692413401035E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7909964020458836E-2</v>
+        <v>9.0783692413401035E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7909964020458836E-2</v>
+        <v>9.0783692413401035E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12286,17 +12297,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9136690647482022E-2</v>
+        <v>8.1723625557206539E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3309352517985612E-2</v>
+        <v>6.5378900445765234E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.9136690647482022E-2</v>
+        <v>8.1723625557206539E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12356,14 +12367,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.358044703452046</v>
+        <v>15.561961538840382</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.358044703452046</v>
+        <v>15.561961538840382</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12384,14 +12395,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.8650455280382321</v>
+        <v>9.961422995535596</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.276794458799591</v>
+        <v>13.436696674373772</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12434,21 +12445,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>76262.98760558317</v>
+        <v>77275.571394084254</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.6356625262274811</v>
+        <v>7.7370452327182129</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.6356625262274811</v>
+        <v>7.7370452327182129</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.422235309530199</v>
+        <v>10.560616808153801</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12497,27 +12508,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>76262.98760558317</v>
+        <v>77275.571394084254</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.4903131472933584</v>
+        <v>6.5764884478104806</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.6356625262274811</v>
+        <v>7.7370452327182129</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.6356625262274811</v>
+        <v>7.7370452327182129</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.6356625262274811</v>
+        <v>7.7370452327182129</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.422235309530199</v>
+        <v>10.560616808153801</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12558,27 +12569,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>65928.184922246088</v>
+        <v>66722.206617058459</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.8898733927168649</v>
+        <v>4.9440253185818017</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9046711291990421</v>
+        <v>4.952587763845699</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.7527922267257239</v>
+        <v>5.8165003748021196</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.6009133242524065</v>
+        <v>6.680412985758541</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.0098628228874436</v>
+        <v>9.1183752376777676</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12619,27 +12630,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>62624.775967291003</v>
+        <v>63370.357229137822</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.6900932700051117</v>
+        <v>5.7602568831961412</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.2701668277132612</v>
+        <v>6.3448164982819559</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.6942273764766025</v>
+        <v>6.7767728037601662</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.1182879252399438</v>
+        <v>7.2087291092383765</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.7160490662088215</v>
+        <v>9.8394960229157853</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D338AE5-C7F1-4984-A155-041F7941B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B26BA66-7031-46FE-85B0-A8DFE88504B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>9987736800</v>
@@ -3678,7 +3703,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45381</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3862,7 +3887,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>86428</v>
@@ -3894,7 +3919,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>13300.2</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>704.6</v>
@@ -3974,7 +3999,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>107.9</v>
@@ -4006,7 +4031,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4038,7 +4063,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4070,7 +4095,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4086,7 +4111,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4118,7 +4143,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4166,7 +4191,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4182,7 +4207,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4198,7 +4223,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4214,7 +4239,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.3+0.25</f>
@@ -4233,11 +4258,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1723625557206539E-2</v>
+        <v>8.2458770614692659E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4282,21 +4307,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4306,7 +4331,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4316,7 +4341,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4327,7 +4352,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4337,7 +4362,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4347,7 +4372,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4358,7 +4383,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4368,7 +4393,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4379,7 +4404,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4387,24 +4412,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4415,7 +4440,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4426,7 +4451,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4437,7 +4462,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4448,7 +4473,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4459,7 +4484,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4470,7 +4495,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4480,31 +4505,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4512,12 +4537,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4528,7 +4553,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4539,7 +4564,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4549,7 +4574,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4560,7 +4585,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4570,25 +4595,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4600,55 +4625,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4656,10 +4681,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4667,18 +4692,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45381</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4687,20 +4712,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4718,7 +4743,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4739,7 +4764,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4760,7 +4785,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4799,7 +4824,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4817,7 +4842,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4835,7 +4860,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4963,62 +4988,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>67217.468664000015</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>66618.204456000007</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5041,16 +5066,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5075,40 +5100,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5121,29 +5146,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5153,12 +5178,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5168,29 +5193,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.79501071628968012</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5198,7 +5223,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5209,26 +5234,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5237,30 +5262,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>11.015194176574218</v>
+        <v>10.916990365193168</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5269,18 +5294,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>7.4842321832102252E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.1723625557206539E-2</v>
+        <v>8.2458770614692659E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5290,62 +5315,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9440253185818017</v>
+        <v>4.959502102377308</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.486131523329432</v>
+        <v>10.521812138146784</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8165003748021196</v>
-      </c>
-      <c r="G29" s="274">
+        <v>5.8347083557380097</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1183752376777676</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>9.1494018592580737</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5355,25 +5380,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5383,7 +5408,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5393,14 +5418,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5410,7 +5435,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5425,14 +5450,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6385,12 +6410,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6417,16 +6442,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6444,7 +6469,7 @@
         <v>45381</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6477,7 +6502,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6488,7 +6513,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6640,7 +6665,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6691,7 +6716,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6742,7 +6767,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6793,7 +6818,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6844,7 +6869,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6895,7 +6920,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6946,7 +6971,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6997,7 +7022,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7048,7 +7073,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7099,7 +7124,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7150,7 +7175,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7201,7 +7226,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7252,7 +7277,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7303,7 +7328,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7354,7 +7379,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7405,7 +7430,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7456,7 +7481,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7507,7 +7532,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7558,7 +7583,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7711,7 +7736,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7762,7 +7787,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7864,7 +7889,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8068,7 +8093,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8119,7 +8144,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8170,7 +8195,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8221,7 +8246,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8272,7 +8297,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8323,7 +8348,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8341,7 +8366,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8392,7 +8417,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8443,7 +8468,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8494,7 +8519,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8545,7 +8570,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8596,7 +8621,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8647,7 +8672,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8698,7 +8723,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8715,50 +8740,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8767,10 +8792,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8818,167 +8843,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="H53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="I53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8986,112 +9012,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.6599205211192604E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>8.6722499851857676E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>4.3435573352998177E-2</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>4.9404128398176213E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.1460893174144591</v>
-      </c>
-      <c r="H56" s="153">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>6.1468062502766631E-2</v>
-      </c>
-      <c r="I56" s="153">
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>5.009181100635824E-2</v>
-      </c>
-      <c r="J56" s="153">
+        <v/>
+      </c>
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>5.5654001160438483E-2</v>
-      </c>
-      <c r="K56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.6599205211192604E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>8.6722499851857676E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3435573352998177E-2</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.9404128398176213E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1460893174144591</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.1468062502766631E-2</v>
+      </c>
+      <c r="I57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.009181100635824E-2</v>
+      </c>
+      <c r="J57" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5654001160438483E-2</v>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9654,7 +9870,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10337,6 +10555,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10376,8 +10595,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10395,7 +10614,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10410,7 +10629,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10424,7 +10643,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10434,7 +10653,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10452,10 +10671,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10464,12 +10683,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10479,7 +10699,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10489,8 +10709,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10502,7 +10723,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10520,7 +10741,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10539,32 +10760,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10581,7 +10802,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10592,7 +10813,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10609,7 +10830,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10620,7 +10841,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10637,7 +10858,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10648,7 +10869,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10665,7 +10886,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10676,7 +10897,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10693,7 +10914,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10703,7 +10924,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10725,7 +10946,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10747,7 +10968,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10768,7 +10989,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10793,7 +11014,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10820,7 +11041,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10841,7 +11062,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10858,7 +11079,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10870,13 +11091,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10898,7 +11119,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10918,7 +11139,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10927,7 +11148,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10947,7 +11168,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10960,7 +11181,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10980,7 +11201,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11026,7 +11247,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11035,7 +11256,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11051,7 +11272,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11061,7 +11282,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11078,7 +11299,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11088,7 +11309,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11105,7 +11326,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11115,7 +11336,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11135,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11145,7 +11366,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11162,7 +11383,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11172,7 +11393,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11198,7 +11419,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11225,7 +11446,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11252,7 +11473,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11273,7 +11494,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11294,7 +11515,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11315,7 +11536,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11336,7 +11557,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11353,7 +11574,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11371,7 +11592,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11390,7 +11611,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11409,7 +11630,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11426,7 +11647,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11439,7 +11660,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11456,7 +11677,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11469,7 +11690,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11486,7 +11707,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11513,7 +11734,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11529,14 +11750,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11553,7 +11774,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11583,7 +11804,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11594,14 +11815,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11609,30 +11830,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11649,11 +11870,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11663,7 +11884,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11684,7 +11905,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11705,7 +11926,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11726,7 +11947,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11741,7 +11962,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11772,11 +11993,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11786,7 +12007,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11807,7 +12028,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11822,7 +12043,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11844,21 +12065,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11868,23 +12089,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11905,7 +12126,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11935,7 +12156,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11956,7 +12177,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11986,7 +12207,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12016,7 +12237,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12047,7 +12268,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12074,12 +12295,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12109,7 +12330,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12139,7 +12360,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12169,7 +12390,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12190,7 +12411,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12221,7 +12442,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12242,28 +12463,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0783692413401035E-2</v>
+        <v>9.1600337322667008E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0783692413401035E-2</v>
+        <v>9.1600337322667008E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0783692413401035E-2</v>
+        <v>9.1600337322667008E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12293,21 +12514,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1723625557206539E-2</v>
+        <v>8.2458770614692659E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5378900445765234E-2</v>
+        <v>6.5967016491754127E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.1723625557206539E-2</v>
+        <v>8.2458770614692659E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12324,29 +12545,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12363,24 +12584,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.561961538840382</v>
+        <v>15.620303262700638</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.561961538840382</v>
+        <v>15.620303262700638</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12391,18 +12612,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.961422995535596</v>
+        <v>9.9889481526569117</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.436696674373772</v>
+        <v>13.482417023902986</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12421,51 +12642,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77275.571394084254</v>
+        <v>77565.277163897699</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7370452327182129</v>
+        <v>7.7660513805187286</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7370452327182129</v>
+        <v>7.7660513805187286</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.560616808153801</v>
+        <v>10.600208513099064</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12483,7 +12704,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12504,31 +12725,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>77275.571394084254</v>
+        <v>77565.277163897699</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.5764884478104806</v>
+        <v>6.6011436734409195</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7370452327182129</v>
+        <v>7.7660513805187286</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.7370452327182129</v>
+        <v>7.7660513805187286</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7370452327182129</v>
+        <v>7.7660513805187286</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.560616808153801</v>
+        <v>10.600208513099064</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12538,58 +12759,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>66722.206617058459</v>
+        <v>66949.238802261403</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9440253185818017</v>
+        <v>4.959502102377308</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.952587763845699</v>
+        <v>4.9662726316018473</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8165003748021196</v>
+        <v>5.8347083557380097</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.680412985758541</v>
+        <v>6.7031440798741722</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1183752376777676</v>
+        <v>9.1494018592580737</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12599,58 +12820,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63370.357229137822</v>
+        <v>63583.550542690158</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7602568831961412</v>
+        <v>5.7803228879091133</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.3448164982819559</v>
+        <v>6.3661620060602875</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7767728037601662</v>
+        <v>6.8003798681283687</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.2087291092383765</v>
+        <v>7.2345977301964499</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8394960229157853</v>
+        <v>9.8748051861785697</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12659,7 +12880,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12668,6 +12889,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B26BA66-7031-46FE-85B0-A8DFE88504B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CD5063-D9F4-43BB-B44A-0B5352D74B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -872,14 +846,6 @@
     <t>C0003</t>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.79501071628968012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12234231416665901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3233621247382252E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4812855868203439E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4842321832102252E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>9987736800</v>
@@ -3703,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45381</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3967,7 +3130,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>704.6</v>
@@ -4111,7 +3274,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4207,7 +3370,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4239,7 +3402,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.3+0.25</f>
@@ -4258,11 +3421,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2458770614692659E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4307,13 +3470,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4372,7 +3535,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4383,7 +3546,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4484,7 +3647,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4495,7 +3658,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4655,7 +3818,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4673,7 +3836,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4681,10 +3844,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4694,16 +3857,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45381</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4712,10 +3875,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4764,7 +3927,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4785,7 +3948,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4842,7 +4005,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4860,7 +4023,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4946,8 +4109,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4988,62 +4151,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>66618.204456000007</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>66318.572352000003</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5066,16 +4229,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5100,40 +4263,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5146,29 +4309,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5178,12 +4341,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5191,9 +4354,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5201,59 +4364,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.79501071628968012</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.12234231416665901</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.3233621247382252E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>8.1323607418922597E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5262,30 +4425,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.916990365193168</v>
+        <v>10.867888459502645</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5294,18 +4457,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>7.4842321832102252E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2458770614692659E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5315,62 +4478,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.959502102377308</v>
+        <v>4.9673603169848883</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.521812138146784</v>
+        <v>10.539931302367208</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8347083557380097</v>
-      </c>
-      <c r="G29" s="278">
+        <v>5.8439533140998687</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1494018592580737</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>9.1651576542323561</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5380,7 +4543,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5391,14 +4554,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5408,7 +4571,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5418,14 +4581,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5435,7 +4598,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5450,14 +4613,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6401,7 +5564,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6415,7 +5577,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6442,16 +5604,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6469,7 +5631,7 @@
         <v>45381</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6502,7 +5664,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6869,7 +6031,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6920,7 +6082,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6971,7 +6133,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7022,7 +6184,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7124,7 +6286,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7277,7 +6439,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7787,7 +6949,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8297,7 +7459,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8348,7 +7510,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8417,7 +7579,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8621,7 +7783,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8723,7 +7885,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8741,14 +7903,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8792,7 +7954,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8843,7 +8005,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8894,7 +8056,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8945,7 +8107,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8962,7 +8124,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9162,7 +8324,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9212,7 +8374,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9262,7 +8424,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10766,7 +9928,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10924,7 +10086,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11336,7 +10498,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11804,7 +10966,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11818,11 +10980,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11833,11 +10995,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11849,11 +11011,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11870,7 +11032,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11947,7 +11109,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11993,7 +11155,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12028,7 +11190,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12067,19 +11229,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12089,18 +11251,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12177,7 +11339,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12207,7 +11369,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12237,7 +11399,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12300,7 +11462,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12330,7 +11492,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12411,7 +11573,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12442,7 +11604,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12463,28 +11625,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1600337322667008E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1600337322667008E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1600337322667008E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12514,21 +11676,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2458770614692659E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5967016491754127E-2</v>
+        <v>6.6265060240963861E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2458770614692659E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12550,24 +11712,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12584,24 +11746,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.620303262700638</v>
+        <v>15.649936244870419</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.620303262700638</v>
+        <v>15.649936244870419</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12612,18 +11774,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9889481526569117</v>
+        <v>10.002920483848715</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.482417023902986</v>
+        <v>13.505634519609707</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12642,14 +11804,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12666,21 +11828,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77565.277163897699</v>
+        <v>77712.424785588286</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7660513805187286</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7660513805187286</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.600208513099064</v>
+        <v>10.620317968375435</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12729,27 +11891,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>77565.277163897699</v>
+        <v>77712.424785588286</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.6011436734409195</v>
+        <v>6.6136665783733957</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7660513805187286</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.7660513805187286</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7660513805187286</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.600208513099064</v>
+        <v>10.620317968375435</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12759,21 +11921,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12786,31 +11948,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>66949.238802261403</v>
+        <v>67064.529232879606</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.959502102377308</v>
+        <v>4.9673603169848883</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9662726316018473</v>
+        <v>4.9732193496082946</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8347083557380097</v>
+        <v>5.8439533140998687</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7031440798741722</v>
+        <v>6.714687278591442</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1494018592580737</v>
+        <v>9.1651576542323561</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12820,21 +11982,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12847,31 +12009,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63583.550542690158</v>
+        <v>63691.815349071563</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7803228879091133</v>
+        <v>5.7905134476791424</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.3661620060602875</v>
+        <v>6.3770017797296745</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.8003798681283687</v>
+        <v>6.8123687619754616</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.2345977301964499</v>
+        <v>7.2477357442212478</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8748051861785697</v>
+        <v>9.8927378113038955</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12880,7 +12042,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CD5063-D9F4-43BB-B44A-0B5352D74B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA310D1-FC02-4D3B-968F-BED7D13FA999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>9987736800</v>
@@ -2866,7 +2886,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45381</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3130,7 +3150,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>704.6</v>
@@ -3240,9 +3260,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3258,7 +3278,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3274,7 +3294,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3289,10 +3309,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3304,9 +3325,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3353,10 +3374,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3370,9 +3392,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3386,7 +3408,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3402,7 +3424,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.3+0.25</f>
@@ -3421,11 +3443,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.2335329341317376E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3470,13 +3492,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3494,7 +3516,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3504,7 +3526,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3535,7 +3557,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3546,7 +3568,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3580,7 +3602,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3647,7 +3669,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3658,7 +3680,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3705,7 +3727,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3818,7 +3840,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3836,7 +3858,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3844,10 +3866,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3855,7 +3877,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3863,10 +3885,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3888,7 +3910,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3927,7 +3949,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3948,7 +3970,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4005,7 +4027,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4023,7 +4045,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4046,28 +4068,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4109,8 +4136,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4151,7 +4178,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4163,15 +4190,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.64</v>
+        <v>6.68</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4191,7 +4218,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4204,7 +4231,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>66318.572352000003</v>
+        <v>66718.081823999994</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4238,7 +4265,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4263,40 +4290,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4309,29 +4336,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4341,12 +4368,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4356,7 +4383,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4364,21 +4391,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4386,10 +4413,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4397,58 +4424,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>8.1323607418922597E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.867888459502645</v>
+        <v>10.933357667090009</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4457,18 +4484,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.2335329341317376E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4478,40 +4505,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9673603169848883</v>
+        <v>4.9569005995284154</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>10.539931302367208</v>
+        <v>10.515814082022388</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8439533140998687</v>
+        <v>5.8316477641510769</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1651576542323561</v>
+        <v>9.1441861582803377</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4519,21 +4546,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4543,25 +4570,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4571,7 +4598,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4581,14 +4608,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4598,7 +4625,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4613,14 +4640,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5520,27 +5547,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5572,12 +5599,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5604,16 +5631,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5631,7 +5658,7 @@
         <v>45381</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5664,7 +5691,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5675,7 +5702,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6031,7 +6058,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6082,7 +6109,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6133,7 +6160,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6184,7 +6211,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6286,7 +6313,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6439,7 +6466,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6694,7 +6721,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6745,7 +6772,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6799,15 +6826,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6847,50 +6874,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6898,50 +6925,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6949,101 +6976,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7051,101 +7078,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7153,50 +7180,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7204,50 +7231,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7255,50 +7282,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7306,272 +7333,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.79501071628968012</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.77639928013484794</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.77420437305496292</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.71388807333696291</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.71637051812485453</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.72094886207656972</v>
+      </c>
+      <c r="I40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.72592314610084452</v>
+      </c>
+      <c r="J40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70801924071381883</v>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.12234231416665901</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14464579170380759</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.14154159637832697</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.16943780125933883</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20434249385030695</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.18098015478338877</v>
+      </c>
+      <c r="I41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.18527327558810205</v>
+      </c>
+      <c r="J41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20191236303675442</v>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.79501071628968012</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.77639928013484794</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.77420437305496292</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.71388807333696291</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.71637051812485453</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.72094886207656972</v>
-      </c>
-      <c r="I42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.72592314610084452</v>
-      </c>
-      <c r="J42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70801924071381883</v>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7579,50 +7606,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.12234231416665901</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14464579170380759</v>
+        <f t="shared" si="37"/>
+        <v>6.1826446595215261E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.14154159637832697</v>
+        <f t="shared" si="37"/>
+        <v>3.4132590508976859E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.16943780125933883</v>
+        <f t="shared" si="37"/>
+        <v>5.3588887717027868E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20434249385030695</v>
+        <f t="shared" si="37"/>
+        <v>9.8606539467285034E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.18098015478338877</v>
+        <f t="shared" si="37"/>
+        <v>5.5549805058137539E-3</v>
       </c>
       <c r="I43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.18527327558810205</v>
+        <f t="shared" si="37"/>
+        <v>4.1195880750011828E-3</v>
       </c>
       <c r="J43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20191236303675442</v>
+        <f t="shared" si="37"/>
+        <v>4.616990760164307E-3</v>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7630,50 +7657,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.4800044498706581E-3</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.2586604162686892E-3</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.8447718054039261E-3</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.9289008554358115E-3</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.1441854720433318E-3</v>
       </c>
       <c r="I44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.4432408553146123E-3</v>
       </c>
       <c r="J44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.4925765839602177E-3</v>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7681,50 +7708,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>6.4812855868203439E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>6.1826446595215261E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.4132590508976859E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.3588887717027868E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>9.8606539467285034E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.5549805058137539E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="I45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.1195880750011828E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="J45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.616990760164307E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7732,221 +7759,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.3233621247382252E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>7.4842321832102252E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.4800044498706581E-3</v>
+        <f t="shared" si="40"/>
+        <v>7.1292279051952262E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.2586604162686892E-3</v>
+        <f t="shared" si="40"/>
+        <v>7.8582111099543772E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.8447718054039261E-3</v>
+        <f t="shared" si="40"/>
+        <v>0.10847046482659158</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.9289008554358115E-3</v>
+        <f t="shared" si="40"/>
+        <v>6.749743322267418E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.1441854720433318E-3</v>
+        <f t="shared" si="40"/>
+        <v>9.0371817162184481E-2</v>
       </c>
       <c r="I46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.4432408553146123E-3</v>
+        <f t="shared" si="40"/>
+        <v>8.2240749380737624E-2</v>
       </c>
       <c r="J46" s="153">
-        <f t="shared" si="38"/>
-        <v>2.4925765839602177E-3</v>
+        <f t="shared" si="40"/>
+        <v>8.295882890530222E-2</v>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>7.4842321832102252E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>7.1292279051952262E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>7.8582111099543772E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.10847046482659158</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.749743322267418E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.0371817162184481E-2</v>
-      </c>
-      <c r="I48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.2240749380737624E-2</v>
-      </c>
-      <c r="J48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.295882890530222E-2</v>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7954,522 +7981,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>8.6599205211192604E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>8.6722499851857676E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3435573352998177E-2</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.9404128398176213E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1460893174144591</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.1468062502766631E-2</v>
+      </c>
+      <c r="I55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.009181100635824E-2</v>
+      </c>
+      <c r="J55" s="153">
+        <f t="shared" si="47"/>
+        <v>5.5654001160438483E-2</v>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>8.6599205211192604E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>8.6722499851857676E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.3435573352998177E-2</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.9404128398176213E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.1460893174144591</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.1468062502766631E-2</v>
-      </c>
-      <c r="I57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.009181100635824E-2</v>
-      </c>
-      <c r="J57" s="153">
-        <f t="shared" si="47"/>
-        <v>5.5654001160438483E-2</v>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9029,12 +8960,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9716,27 +9643,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9928,7 +9858,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9975,7 +9905,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10003,7 +9933,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10086,7 +10016,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10108,7 +10038,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10176,7 +10106,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10498,7 +10428,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10635,7 +10565,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10966,7 +10896,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11032,7 +10962,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11067,7 +10997,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11088,7 +11018,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11109,7 +11039,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11124,7 +11054,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11155,7 +11085,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11169,7 +11099,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11190,7 +11120,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11205,7 +11135,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11227,7 +11157,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11235,11 +11165,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11267,7 +11197,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11339,7 +11269,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11369,7 +11299,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11399,7 +11329,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11457,12 +11387,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11492,7 +11422,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11522,7 +11452,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11573,7 +11503,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11604,7 +11534,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11625,28 +11555,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.1463211069189962E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.1463211069189962E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.1463211069189962E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11676,21 +11606,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.2335329341317376E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6265060240963861E-2</v>
+        <v>6.5868263473053898E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.2335329341317376E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11707,27 +11637,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11746,24 +11676,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.649936244870419</v>
+        <v>15.610494656396618</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.649936244870419</v>
+        <v>15.610494656396618</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11774,18 +11704,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.002920483848715</v>
+        <v>9.9843220431496995</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.505634519609707</v>
+        <v>13.474731247637441</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11804,14 +11734,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11824,31 +11754,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77712.424785588286</v>
+        <v>77516.570858151419</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7611747696586697</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7611747696586697</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.620317968375435</v>
+        <v>10.593552222865968</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11866,7 +11796,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11891,27 +11821,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>77712.424785588286</v>
+        <v>77516.570858151419</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.6136665783733957</v>
+        <v>6.5969985542098692</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7611747696586697</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.7807842098510536</v>
+        <v>7.7611747696586697</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7611747696586688</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.620317968375435</v>
+        <v>10.593552222865968</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11921,21 +11851,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11948,31 +11878,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>67064.529232879606</v>
+        <v>66911.073770748859</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9673603169848883</v>
+        <v>4.9569005995284154</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9732193496082946</v>
+        <v>4.9639726375799187</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8439533140998687</v>
+        <v>5.8316477641510769</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.714687278591442</v>
+        <v>6.699322890722236</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1651576542323561</v>
+        <v>9.1441861582803377</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11982,21 +11912,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12009,31 +11939,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63691.815349071563</v>
+        <v>63547.711522350713</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7905134476791424</v>
+        <v>5.7769495768691428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.3770017797296745</v>
+        <v>6.3625737036192938</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.8123687619754616</v>
+        <v>6.7964112669048733</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.2477357442212478</v>
+        <v>7.2302488301904528</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.8927378113038955</v>
+        <v>9.8688691905731538</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12042,7 +11972,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA310D1-FC02-4D3B-968F-BED7D13FA999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FAD1DE6-8AA9-4E40-9D0A-9A05A02BCED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="191" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="192">
+        <v>9987736800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="215" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="216">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="217">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="215" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="216">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="219" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="220">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="193">
-        <v>9987736800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="192" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="219">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="220">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="219">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="223">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,464 +3048,468 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>108713</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>94684.4</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>98937.7</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>70163.8</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>56750.8</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>66660.899999999994</v>
       </c>
-      <c r="I25" s="149">
+      <c r="I25" s="148">
         <v>59156.4</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="148">
         <v>51245.5</v>
       </c>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>86428</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>73512.899999999994</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>76598</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>50089.1</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>40654.6</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>48059.1</v>
       </c>
-      <c r="I26" s="150">
+      <c r="I26" s="149">
         <v>42943</v>
       </c>
-      <c r="J26" s="150">
+      <c r="J26" s="149">
         <v>36282.800000000003</v>
       </c>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>13300.2</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>13695.699999999999</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>14003.8</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>11888.399999999998</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>11596.6</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>12064.3</v>
       </c>
-      <c r="I27" s="150">
+      <c r="I27" s="149">
         <v>10960.1</v>
       </c>
-      <c r="J27" s="150">
+      <c r="J27" s="149">
         <v>10347.099999999999</v>
       </c>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>704.6</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>585.4</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>337.7</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>376</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>559.6</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>370.3</v>
       </c>
-      <c r="I29" s="150">
+      <c r="I29" s="149">
         <v>243.7</v>
       </c>
-      <c r="J29" s="150">
+      <c r="J29" s="149">
         <v>236.6</v>
       </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>107.9</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>105.1</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>167.6</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>149.69999999999999</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>82.1</v>
       </c>
-      <c r="H30" s="150">
+      <c r="H30" s="149">
         <v>107.2</v>
       </c>
-      <c r="I30" s="150">
+      <c r="I30" s="149">
         <v>108.4</v>
       </c>
-      <c r="J30" s="150">
+      <c r="J30" s="149">
         <v>95.8</v>
       </c>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.3+0.25</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2335329341317376E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>8.2706766917293228E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3568,7 +3580,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3596,7 +3608,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3608,7 +3620,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3627,8 +3639,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3680,7 +3692,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3696,7 +3708,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3708,7 +3720,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3721,7 +3733,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3769,14 +3781,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3800,7 +3812,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3830,19 +3842,19 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3858,20 +3870,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="197">
+        <v>235</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>233</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3901,10 +3913,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3916,12 +3928,12 @@
         <f>C25</f>
         <v>108713</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>108713</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>108713</v>
       </c>
@@ -3934,75 +3946,75 @@
         <f>C26</f>
         <v>86428</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>86428</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>86428</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>13300.2</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>13300.2</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>13300.2</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>704.6</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>704.6</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4015,12 +4027,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4033,12 +4045,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>143.86666666666667</v>
       </c>
@@ -4047,16 +4059,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4137,7 +4149,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4189,11 +4201,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>6.68</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>6.65</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4231,7 +4243,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>66718.081823999994</v>
+        <v>66418.449720000004</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4241,11 +4253,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -4267,11 +4279,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
@@ -4279,7 +4291,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4289,10 +4301,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4300,7 +4312,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4308,13 +4320,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4323,12 +4335,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4338,7 +4350,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4349,7 +4361,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4357,13 +4369,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4373,49 +4385,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4423,79 +4435,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.933357667090009</v>
+        <v>10.884255761399487</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.90020160432627339</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2335329341317376E-2</v>
+        <v>8.2706766917293228E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4512,10 +4524,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4523,22 +4535,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9569005995284154</v>
-      </c>
-      <c r="D29" s="129">
+        <v>4.9647319153416634</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>10.515814082022388</v>
+        <v>10.533870640924937</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8316477641510769</v>
+        <v>5.8408610768725451</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1441861582803377</v>
+        <v>9.1598875138477709</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4546,23 +4558,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4570,9 +4582,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4580,17 +4592,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4598,26 +4610,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4625,9 +4637,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4640,16 +4652,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5601,10 +5613,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5630,16 +5642,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5653,11 +5665,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45381</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85">
@@ -5682,7 +5694,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5690,7 +5702,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93">
@@ -5754,47 +5766,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>108713</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>94684.4</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>98937.7</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>70163.8</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>56750.8</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>66660.899999999994</v>
       </c>
-      <c r="I6" s="200">
+      <c r="I6" s="199">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>59156.4</v>
       </c>
-      <c r="J6" s="200">
+      <c r="J6" s="199">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>51245.5</v>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5856,47 +5868,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>86428</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>73512.899999999994</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>76598</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>50089.1</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>40654.6</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>48059.1</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="198">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>42943</v>
       </c>
-      <c r="J8" s="199">
+      <c r="J8" s="198">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>36282.800000000003</v>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5907,47 +5919,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>22285</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>21171.5</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>22339.699999999997</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>20074.700000000004</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>16096.200000000004</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>18601.799999999996</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="150">
         <f t="shared" si="2"/>
         <v>16213.400000000001</v>
       </c>
-      <c r="J9" s="151">
+      <c r="J9" s="150">
         <f t="shared" si="2"/>
         <v>14962.699999999997</v>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5958,47 +5970,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>13300.2</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13695.699999999999</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>14003.8</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>11888.399999999998</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>11596.6</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>12064.3</v>
       </c>
-      <c r="I10" s="199">
+      <c r="I10" s="198">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>10960.1</v>
       </c>
-      <c r="J10" s="199">
+      <c r="J10" s="198">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>10347.099999999999</v>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6009,47 +6021,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6058,49 +6070,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>140.13333333333333</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>223.46666666666667</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>199.6</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>109.46666666666665</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>142.93333333333334</v>
       </c>
-      <c r="I12" s="199">
+      <c r="I12" s="198">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>144.53333333333333</v>
       </c>
-      <c r="J12" s="199">
+      <c r="J12" s="198">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>127.73333333333333</v>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6108,50 +6120,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>7.7474923711473784E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>8.1995370150441463E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.11382935359829437</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>7.7358087169402678E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>9.5926797667998234E-2</v>
       </c>
-      <c r="I13" s="229">
+      <c r="I13" s="226">
         <f t="shared" si="3"/>
         <v>8.6360337455738803E-2</v>
       </c>
-      <c r="J13" s="229">
+      <c r="J13" s="226">
         <f t="shared" si="3"/>
         <v>8.7575819665466528E-2</v>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6159,50 +6171,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>7335.6666666666679</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>8112.4333333333316</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>7986.7000000000062</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>4390.1333333333378</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>6394.566666666663</v>
       </c>
-      <c r="I14" s="230">
+      <c r="I14" s="227">
         <f t="shared" si="4"/>
         <v>5108.7666666666673</v>
       </c>
-      <c r="J14" s="230">
+      <c r="J14" s="227">
         <f t="shared" si="4"/>
         <v>4487.866666666665</v>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6210,50 +6222,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.20519834598082398</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-9.5750144839402543E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>1.5742839136730476E-2</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.8192385956387046</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>-0.31345882181226664</v>
       </c>
-      <c r="H15" s="232">
+      <c r="H15" s="229">
         <f t="shared" si="5"/>
         <v>0.25168501203812965</v>
       </c>
-      <c r="I15" s="232">
+      <c r="I15" s="229">
         <f t="shared" si="5"/>
         <v>0.1383508125612769</v>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6264,47 +6276,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6313,49 +6325,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>704.6</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>585.4</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>337.7</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>376</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>559.6</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>370.3</v>
       </c>
-      <c r="I17" s="199">
+      <c r="I17" s="198">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>243.7</v>
       </c>
-      <c r="J17" s="199">
+      <c r="J17" s="198">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>236.6</v>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6366,47 +6378,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6417,47 +6429,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6466,49 +6478,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="152">
+      <c r="I20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="152">
+      <c r="J20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6519,47 +6531,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6570,47 +6582,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>6750.2666666666682</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>7774.7333333333318</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>7610.7000000000062</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>3830.5333333333379</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>6024.2666666666628</v>
       </c>
-      <c r="I22" s="161">
+      <c r="I22" s="160">
         <f t="shared" si="8"/>
         <v>4865.0666666666675</v>
       </c>
-      <c r="J22" s="161">
+      <c r="J22" s="160">
         <f t="shared" si="8"/>
         <v>4251.2666666666646</v>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6621,47 +6633,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>5.346920928896419E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>5.8936583324657836E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>8.1352848619943685E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>5.0623074917005628E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>6.7778862871638354E-2</v>
       </c>
-      <c r="I23" s="153">
+      <c r="I23" s="152">
         <f t="shared" si="9"/>
         <v>6.1680562035553221E-2</v>
       </c>
-      <c r="J23" s="153">
+      <c r="J23" s="152">
         <f t="shared" si="9"/>
         <v>6.2219121678976662E-2</v>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6672,7 +6684,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>6102.2499999999991</v>
       </c>
@@ -6720,50 +6732,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.20533509787267629</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.13176872089932321</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>2.1552988993565038E-2</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>0.98685126527202427</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>-0.36414944004249367</v>
       </c>
-      <c r="H25" s="233">
+      <c r="H25" s="230">
         <f t="shared" si="10"/>
         <v>0.23827011620258615</v>
       </c>
-      <c r="I25" s="233">
+      <c r="I25" s="230">
         <f t="shared" si="10"/>
         <v>0.14438049836127348</v>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6880,43 +6892,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6931,43 +6943,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6976,49 +6988,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7033,43 +7045,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7084,43 +7096,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7186,43 +7198,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7237,43 +7249,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7288,43 +7300,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7386,47 +7398,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7435,7 +7447,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7455,47 +7467,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.77639928013484794</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.77420437305496292</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.71388807333696291</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.71637051812485453</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.72094886207656972</v>
       </c>
-      <c r="I40" s="156">
+      <c r="I40" s="155">
         <f t="shared" si="34"/>
         <v>0.72592314610084452</v>
       </c>
-      <c r="J40" s="156">
+      <c r="J40" s="155">
         <f t="shared" si="34"/>
         <v>0.70801924071381883</v>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7504,49 +7516,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.14464579170380759</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.14154159637832697</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.16943780125933883</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.20434249385030695</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.18098015478338877</v>
       </c>
-      <c r="I41" s="153">
+      <c r="I41" s="152">
         <f t="shared" si="35"/>
         <v>0.18527327558810205</v>
       </c>
-      <c r="J41" s="153">
+      <c r="J41" s="152">
         <f t="shared" si="35"/>
         <v>0.20191236303675442</v>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7557,47 +7569,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153">
+      <c r="I42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="153">
+      <c r="J42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7608,47 +7620,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>6.1826446595215261E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>3.4132590508976859E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>5.3588887717027868E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>9.8606539467285034E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>5.5549805058137539E-3</v>
       </c>
-      <c r="I43" s="153">
+      <c r="I43" s="152">
         <f t="shared" si="37"/>
         <v>4.1195880750011828E-3</v>
       </c>
-      <c r="J43" s="153">
+      <c r="J43" s="152">
         <f t="shared" si="37"/>
         <v>4.616990760164307E-3</v>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7659,47 +7671,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.4800044498706581E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>2.2586604162686892E-3</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>2.8447718054039261E-3</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>1.9289008554358115E-3</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>2.1441854720433318E-3</v>
       </c>
-      <c r="I44" s="153">
+      <c r="I44" s="152">
         <f t="shared" si="38"/>
         <v>2.4432408553146123E-3</v>
       </c>
-      <c r="J44" s="153">
+      <c r="J44" s="152">
         <f t="shared" si="38"/>
         <v>2.4925765839602177E-3</v>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7708,49 +7720,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="153">
+      <c r="I45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J45" s="153">
+      <c r="J45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7761,47 +7773,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>7.1292279051952262E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>7.8582111099543772E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.10847046482659158</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>6.749743322267418E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>9.0371817162184481E-2</v>
       </c>
-      <c r="I46" s="153">
+      <c r="I46" s="152">
         <f t="shared" si="40"/>
         <v>8.2240749380737624E-2</v>
       </c>
-      <c r="J46" s="153">
+      <c r="J46" s="152">
         <f t="shared" si="40"/>
         <v>8.295882890530222E-2</v>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7810,9 +7822,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7827,50 +7841,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="e">
+      <c r="H48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="272" t="e">
+      <c r="I48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J48" s="272" t="e">
+      <c r="J48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7879,49 +7893,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7930,49 +7944,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7981,49 +7995,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="e">
+      <c r="G51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="153" t="e">
+      <c r="H51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="153" t="e">
+      <c r="I51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8032,7 +8046,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8049,49 +8063,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8101,47 +8115,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8151,47 +8165,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.6599205211192604E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>8.6722499851857676E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>4.3435573352998177E-2</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>4.9404128398176213E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>0.1460893174144591</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>6.1468062502766631E-2</v>
       </c>
-      <c r="I55" s="153">
+      <c r="I55" s="152">
         <f t="shared" si="47"/>
         <v>5.009181100635824E-2</v>
       </c>
-      <c r="J55" s="153">
+      <c r="J55" s="152">
         <f t="shared" si="47"/>
         <v>5.5654001160438483E-2</v>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8201,47 +8215,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8249,149 +8263,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="e">
+      <c r="I58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J58" s="274" t="e">
+      <c r="J58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="e">
+      <c r="I59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J59" s="274" t="e">
+      <c r="J59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9687,8 +9701,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9724,8 +9738,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9737,8 +9751,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9748,8 +9762,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9836,11 +9850,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45381</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
@@ -9883,7 +9897,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9911,7 +9925,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9939,7 +9953,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9967,7 +9981,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9980,7 +9994,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9995,7 +10009,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10022,7 +10036,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10044,7 +10058,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10066,7 +10080,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10087,7 +10101,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10095,7 +10109,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10112,7 +10126,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10120,7 +10134,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10139,7 +10153,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10160,7 +10174,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10325,7 +10339,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10354,7 +10368,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10380,7 +10394,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10407,7 +10421,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10434,7 +10448,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10450,7 +10464,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10464,7 +10478,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10491,7 +10505,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10499,7 +10513,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10525,7 +10539,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10544,7 +10558,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10552,7 +10566,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10571,7 +10585,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10592,7 +10606,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10613,7 +10627,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10634,7 +10648,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10655,7 +10669,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10801,8 +10815,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10828,8 +10842,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10899,7 +10913,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10999,7 +11013,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -11007,7 +11021,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11038,11 +11052,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11119,12 +11133,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11203,17 +11217,17 @@
         <f>Data!C6</f>
         <v>108713</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>108713</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>108713</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11224,23 +11238,23 @@
         <f>Data!C8</f>
         <v>86428</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>86428</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>86428</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.79501071628968012</v>
       </c>
@@ -11250,48 +11264,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>22285</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>22285</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>22285</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>13300.2</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>13300.2</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>13300.2</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.12234231416665901</v>
       </c>
@@ -11305,54 +11319,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>8.1323607418922597E-2</v>
       </c>
@@ -11366,55 +11380,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>704.6</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>704.6</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>704.6</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
@@ -11422,29 +11436,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11454,27 +11468,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
@@ -11484,49 +11498,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
@@ -11536,69 +11550,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1463211069189962E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>9.1875827058975776E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1463211069189962E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>9.1875827058975776E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1463211069189962E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>9.1875827058975776E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.90020160432627339</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.72016128346101871</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.90020160432627339</v>
       </c>
@@ -11606,23 +11620,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2335329341317376E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.2706766917293228E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5868263473053898E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>6.6165413533834594E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2335329341317376E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.2706766917293228E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11644,7 +11658,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11667,27 +11681,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.610494656396618</v>
+        <v>15.640023876839555</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.610494656396618</v>
+        <v>15.640023876839555</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11695,27 +11709,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9843220431496995</v>
+        <v>9.9982472940366662</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.474731247637441</v>
+        <v>13.497868522276494</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11729,25 +11743,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11758,21 +11772,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77516.570858151419</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>77663.20323330893</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7611747696586697</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>7.7758560110743931</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7611747696586697</v>
-      </c>
-      <c r="I97" s="123">
+        <v>7.7758560110743931</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.593552222865968</v>
+        <v>10.613591263636184</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11784,14 +11798,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11802,17 +11816,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11821,27 +11835,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>77516.570858151419</v>
+        <v>77663.20323330893</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.5969985542098692</v>
+        <v>6.6094776094132346</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7611747696586697</v>
+        <v>7.7758560110743931</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.7611747696586697</v>
+        <v>7.7758560110743939</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7611747696586688</v>
+        <v>7.7758560110743939</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.593552222865968</v>
+        <v>10.613591263636184</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11853,25 +11867,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11882,27 +11896,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>66911.073770748859</v>
+        <v>67025.965849987842</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9569005995284154</v>
-      </c>
-      <c r="E103" s="123">
+        <v>4.9647319153416634</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9639726375799187</v>
+        <v>4.9708959483541104</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8316477641510769</v>
-      </c>
-      <c r="H103" s="123">
+        <v>5.8408610768725451</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.699322890722236</v>
+        <v>6.7108262053909797</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1441861582803377</v>
+        <v>9.1598875138477709</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11914,25 +11928,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11943,27 +11957,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63547.711522350713</v>
+        <v>63655.601812828085</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7769495768691428</v>
-      </c>
-      <c r="E106" s="123">
+        <v>5.7871047623774494</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>6.3625737036192938</v>
+        <v>6.3733759797142522</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7964112669048733</v>
-      </c>
-      <c r="H106" s="123">
+        <v>6.8083585439734691</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.2302488301904528</v>
-      </c>
-      <c r="I106" s="123">
+        <v>7.2433411082326868</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>9.8688691905731538</v>
+        <v>9.8867393887419777</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11974,14 +11988,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FAD1DE6-8AA9-4E40-9D0A-9A05A02BCED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D380027D-EDE6-4079-AAEA-093BCA179F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2706766917293228E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>66418.449720000004</v>
+        <v>66518.327088000005</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.884255761399487</v>
+        <v>10.900623063296328</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2706766917293228E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4537,20 +4537,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9647319153416634</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>10.533870640924937</v>
+        <v>10.527830955438109</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8408610768725451</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1598875138477709</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11573,17 +11573,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1875827058975776E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1875827058975776E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1875827058975776E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11624,17 +11624,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2706766917293228E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6165413533834594E-2</v>
+        <v>6.6066066066066076E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2706766917293228E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11694,14 +11694,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.640023876839555</v>
+        <v>15.630146276355532</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.640023876839555</v>
+        <v>15.630146276355532</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11722,14 +11722,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9982472940366662</v>
+        <v>9.9935898767171523</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.497868522276494</v>
+        <v>13.490129403067987</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11772,21 +11772,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77663.20323330893</v>
+        <v>77614.154325206924</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7758560110743931</v>
+        <v>7.7709450979131658</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7758560110743931</v>
+        <v>7.7709450979131658</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.613591263636184</v>
+        <v>10.606888152756785</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11835,27 +11835,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>77663.20323330893</v>
+        <v>77614.154325206924</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.6094776094132346</v>
+        <v>6.6053033332261899</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7758560110743931</v>
+        <v>7.7709450979131658</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>7.7758560110743939</v>
+        <v>7.7709450979131649</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7758560110743939</v>
+        <v>7.7709450979131649</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.613591263636184</v>
+        <v>10.606888152756785</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11896,27 +11896,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>67025.965849987842</v>
+        <v>66987.535935003689</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9647319153416634</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9708959483541104</v>
+        <v>4.9685803888162727</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>5.8408610768725451</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7108262053909797</v>
+        <v>6.7069784953688103</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1598875138477709</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11957,27 +11957,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63655.601812828085</v>
+        <v>63619.513759172762</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7871047623774494</v>
+        <v>5.783707929502425</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>6.3733759797142522</v>
+        <v>6.3697627433647188</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.8083585439734691</v>
+        <v>6.8043622700028532</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.2433411082326868</v>
+        <v>7.2389617966409876</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>9.8867393887419777</v>
+        <v>9.8807618830906137</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D380027D-EDE6-4079-AAEA-093BCA179F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1D29C9-D651-4842-8403-23E072A15436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -853,10 +850,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,176 +2826,176 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="190">
+        <v>9987736800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="191" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>9987736800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="D24" s="49">
         <f>EOMONTH(EDATE(C24,-12),0)</f>
@@ -3045,862 +3039,885 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>108713</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>94684.4</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>98937.7</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>70163.8</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>56750.8</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>66660.899999999994</v>
       </c>
-      <c r="I25" s="148">
+      <c r="I25" s="147">
         <v>59156.4</v>
       </c>
-      <c r="J25" s="148">
+      <c r="J25" s="147">
         <v>51245.5</v>
       </c>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>86428</v>
+      </c>
+      <c r="D26" s="148">
+        <v>73512.899999999994</v>
+      </c>
+      <c r="E26" s="148">
+        <v>76598</v>
+      </c>
+      <c r="F26" s="148">
+        <v>50089.1</v>
+      </c>
+      <c r="G26" s="148">
+        <v>40654.6</v>
+      </c>
+      <c r="H26" s="148">
+        <v>48059.1</v>
+      </c>
+      <c r="I26" s="148">
+        <v>42943</v>
+      </c>
+      <c r="J26" s="148">
+        <v>36282.800000000003</v>
+      </c>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>13300.2</v>
+      </c>
+      <c r="D27" s="148">
+        <v>13695.699999999999</v>
+      </c>
+      <c r="E27" s="148">
+        <v>14003.8</v>
+      </c>
+      <c r="F27" s="148">
+        <v>11888.399999999998</v>
+      </c>
+      <c r="G27" s="148">
+        <v>11596.6</v>
+      </c>
+      <c r="H27" s="148">
+        <v>12064.3</v>
+      </c>
+      <c r="I27" s="148">
+        <v>10960.1</v>
+      </c>
+      <c r="J27" s="148">
+        <v>10347.099999999999</v>
+      </c>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>86428</v>
-      </c>
-      <c r="D26" s="149">
-        <v>73512.899999999994</v>
-      </c>
-      <c r="E26" s="149">
-        <v>76598</v>
-      </c>
-      <c r="F26" s="149">
-        <v>50089.1</v>
-      </c>
-      <c r="G26" s="149">
-        <v>40654.6</v>
-      </c>
-      <c r="H26" s="149">
-        <v>48059.1</v>
-      </c>
-      <c r="I26" s="149">
-        <v>42943</v>
-      </c>
-      <c r="J26" s="149">
-        <v>36282.800000000003</v>
-      </c>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>704.6</v>
+      </c>
+      <c r="D29" s="148">
+        <v>585.4</v>
+      </c>
+      <c r="E29" s="148">
+        <v>337.7</v>
+      </c>
+      <c r="F29" s="148">
+        <v>376</v>
+      </c>
+      <c r="G29" s="148">
+        <v>559.6</v>
+      </c>
+      <c r="H29" s="148">
+        <v>370.3</v>
+      </c>
+      <c r="I29" s="148">
+        <v>243.7</v>
+      </c>
+      <c r="J29" s="148">
+        <v>236.6</v>
+      </c>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>107.9</v>
+      </c>
+      <c r="D30" s="148">
+        <v>105.1</v>
+      </c>
+      <c r="E30" s="148">
+        <v>167.6</v>
+      </c>
+      <c r="F30" s="148">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="G30" s="148">
+        <v>82.1</v>
+      </c>
+      <c r="H30" s="148">
+        <v>107.2</v>
+      </c>
+      <c r="I30" s="148">
+        <v>108.4</v>
+      </c>
+      <c r="J30" s="148">
+        <v>95.8</v>
+      </c>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>13300.2</v>
-      </c>
-      <c r="D27" s="149">
-        <v>13695.699999999999</v>
-      </c>
-      <c r="E27" s="149">
-        <v>14003.8</v>
-      </c>
-      <c r="F27" s="149">
-        <v>11888.399999999998</v>
-      </c>
-      <c r="G27" s="149">
-        <v>11596.6</v>
-      </c>
-      <c r="H27" s="149">
-        <v>12064.3</v>
-      </c>
-      <c r="I27" s="149">
-        <v>10960.1</v>
-      </c>
-      <c r="J27" s="149">
-        <v>10347.099999999999</v>
-      </c>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>704.6</v>
-      </c>
-      <c r="D29" s="149">
-        <v>585.4</v>
-      </c>
-      <c r="E29" s="149">
-        <v>337.7</v>
-      </c>
-      <c r="F29" s="149">
-        <v>376</v>
-      </c>
-      <c r="G29" s="149">
-        <v>559.6</v>
-      </c>
-      <c r="H29" s="149">
-        <v>370.3</v>
-      </c>
-      <c r="I29" s="149">
-        <v>243.7</v>
-      </c>
-      <c r="J29" s="149">
-        <v>236.6</v>
-      </c>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>107.9</v>
-      </c>
-      <c r="D30" s="149">
-        <v>105.1</v>
-      </c>
-      <c r="E30" s="149">
-        <v>167.6</v>
-      </c>
-      <c r="F30" s="149">
-        <v>149.69999999999999</v>
-      </c>
-      <c r="G30" s="149">
-        <v>82.1</v>
-      </c>
-      <c r="H30" s="149">
-        <v>107.2</v>
-      </c>
-      <c r="I30" s="149">
-        <v>108.4</v>
-      </c>
-      <c r="J30" s="149">
-        <v>95.8</v>
-      </c>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
+        <f>(58068800+2412200)/1000</f>
+        <v>60481</v>
+      </c>
+      <c r="D37" s="148">
+        <f>(51021500+2959200)/1000</f>
+        <v>53980.7</v>
+      </c>
+      <c r="E37" s="148">
+        <f>(49629400+3553200)/1000</f>
+        <v>53182.6</v>
+      </c>
+      <c r="F37" s="148">
+        <f>(29142200+3598400)/1000</f>
+        <v>32740.6</v>
+      </c>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>26381.4</v>
+      </c>
+      <c r="D41" s="148">
+        <v>33359.800000000003</v>
+      </c>
+      <c r="E41" s="148">
+        <v>34554.699999999997</v>
+      </c>
+      <c r="F41" s="148">
+        <v>31567.599999999999</v>
+      </c>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>1036.4000000000001</v>
+      </c>
+      <c r="D42" s="148">
+        <v>962.4</v>
+      </c>
+      <c r="E42" s="148">
+        <v>935.4</v>
+      </c>
+      <c r="F42" s="148">
+        <v>800.5</v>
+      </c>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.3+0.25</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2582582582582581E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>8.3586626139817641E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="196">
+        <v>233</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>232</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
-        <v>45381</v>
-      </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+        <v>45382</v>
+      </c>
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3909,166 +3926,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>108713</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>108713</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>108713</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>86428</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>86428</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>86428</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>232</v>
+      <c r="B93" s="103" t="s">
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>13300.2</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>13300.2</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>13300.2</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>704.6</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>704.6</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>143.86666666666667</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98*0.8</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.55000000000000004</v>
       </c>
@@ -4081,32 +4098,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4165,13 +4182,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4182,116 +4199,116 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1929.HK : 周大福</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>6.66</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>6.58</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>66518.327088000005</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>65719.308143999995</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
-        <v>45626</v>
+        <v>45808</v>
       </c>
       <c r="E6" s="51">
         <f>IF(Fin_Analysis!E9="FY",Fin_Analysis!D9,Data!C3)</f>
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0003</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4301,280 +4318,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+        <v>0.34882356809364112</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="87"/>
+        <v>0.2917833262723572</v>
+      </c>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+        <v>1.2515541822468641</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>2.4911228420023197</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.900623063296328</v>
+        <v>10.769684648121597</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.90020160432627339</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.3586626139817641E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.96211252577866</v>
-      </c>
-      <c r="D29" s="128">
+        <v>4.9833225916140247</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>10.527830955438109</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>10.576741894373171</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8377794420925415</v>
-      </c>
-      <c r="G29" s="286">
+        <v>5.8627324607223823</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1546356134244427</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>9.1971668646723241</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4582,9 +4599,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4592,17 +4609,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4610,26 +4627,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4637,9 +4654,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4652,16 +4669,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5613,10 +5630,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5642,59 +5659,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
-        <v>45381</v>
-      </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85">
+        <v>45382</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84">
         <f>H14</f>
         <v>6394.566666666663</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5702,23 +5719,23 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>5.5474712364703915E-2</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="D5" s="49">
         <f>EOMONTH(EDATE(C5,-12),0)</f>
@@ -5763,928 +5780,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>108713</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>94684.4</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>98937.7</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>70163.8</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>56750.8</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>66660.899999999994</v>
       </c>
-      <c r="I6" s="199">
+      <c r="I6" s="197">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v>59156.4</v>
       </c>
-      <c r="J6" s="199">
+      <c r="J6" s="197">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v>51245.5</v>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.14816168238907368</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-4.2989679363882538E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.41009608943643294</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>0.23634909111413416</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>-0.14866435946709378</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <f t="shared" si="1"/>
         <v>0.12685863237113804</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <f t="shared" si="1"/>
         <v>0.15437257905572199</v>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>86428</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>73512.899999999994</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>76598</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>50089.1</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>40654.6</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>48059.1</v>
       </c>
-      <c r="I8" s="198">
+      <c r="I8" s="196">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v>42943</v>
       </c>
-      <c r="J8" s="198">
+      <c r="J8" s="196">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v>36282.800000000003</v>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>22285</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>21171.5</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>22339.699999999997</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>20074.700000000004</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>16096.200000000004</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>18601.799999999996</v>
       </c>
-      <c r="I9" s="150">
+      <c r="I9" s="149">
         <f t="shared" si="2"/>
         <v>16213.400000000001</v>
       </c>
-      <c r="J9" s="150">
+      <c r="J9" s="149">
         <f t="shared" si="2"/>
         <v>14962.699999999997</v>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>13300.2</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>13695.699999999999</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>14003.8</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>11888.399999999998</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>11596.6</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>12064.3</v>
       </c>
-      <c r="I10" s="198">
+      <c r="I10" s="196">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v>10960.1</v>
       </c>
-      <c r="J10" s="198">
+      <c r="J10" s="196">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v>10347.099999999999</v>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>140.13333333333333</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>223.46666666666667</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>199.6</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>109.46666666666665</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>142.93333333333334</v>
       </c>
-      <c r="I12" s="198">
+      <c r="I12" s="196">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>144.53333333333333</v>
       </c>
-      <c r="J12" s="198">
+      <c r="J12" s="196">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>127.73333333333333</v>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>7.7474923711473784E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>8.1995370150441463E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.11382935359829437</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>7.7358087169402678E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>9.5926797667998234E-2</v>
       </c>
-      <c r="I13" s="226">
+      <c r="I13" s="224">
         <f t="shared" si="3"/>
         <v>8.6360337455738803E-2</v>
       </c>
-      <c r="J13" s="226">
+      <c r="J13" s="224">
         <f t="shared" si="3"/>
         <v>8.7575819665466528E-2</v>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>7335.6666666666679</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>8112.4333333333316</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>7986.7000000000062</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>4390.1333333333378</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>6394.566666666663</v>
       </c>
-      <c r="I14" s="227">
+      <c r="I14" s="225">
         <f t="shared" si="4"/>
         <v>5108.7666666666673</v>
       </c>
-      <c r="J14" s="227">
+      <c r="J14" s="225">
         <f t="shared" si="4"/>
         <v>4487.866666666665</v>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.20519834598082398</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-9.5750144839402543E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>1.5742839136730476E-2</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.8192385956387046</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>-0.31345882181226664</v>
       </c>
-      <c r="H15" s="229">
+      <c r="H15" s="227">
         <f t="shared" si="5"/>
         <v>0.25168501203812965</v>
       </c>
-      <c r="I15" s="229">
+      <c r="I15" s="227">
         <f t="shared" si="5"/>
         <v>0.1383508125612769</v>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>704.6</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>585.4</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>337.7</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>376</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>559.6</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>370.3</v>
       </c>
-      <c r="I17" s="198">
+      <c r="I17" s="196">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v>243.7</v>
       </c>
-      <c r="J17" s="198">
+      <c r="J17" s="196">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v>236.6</v>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="151">
+      <c r="I20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="151">
+      <c r="J20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>6750.2666666666682</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>7774.7333333333318</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>7610.7000000000062</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>3830.5333333333379</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>6024.2666666666628</v>
       </c>
-      <c r="I22" s="160">
+      <c r="I22" s="158">
         <f t="shared" si="8"/>
         <v>4865.0666666666675</v>
       </c>
-      <c r="J22" s="160">
+      <c r="J22" s="158">
         <f t="shared" si="8"/>
         <v>4251.2666666666646</v>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>5.346920928896419E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>5.8936583324657836E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>8.1352848619943685E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>5.0623074917005628E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>6.7778862871638354E-2</v>
       </c>
-      <c r="I23" s="152">
+      <c r="I23" s="151">
         <f t="shared" si="9"/>
         <v>6.1680562035553221E-2</v>
       </c>
-      <c r="J23" s="152">
+      <c r="J23" s="151">
         <f t="shared" si="9"/>
         <v>6.2219121678976662E-2</v>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>6102.2499999999991</v>
       </c>
@@ -6728,67 +6745,67 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.20533509787267629</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.13176872089932321</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>2.1552988993565038E-2</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>0.98685126527202427</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>-0.36414944004249367</v>
       </c>
-      <c r="H25" s="230">
+      <c r="H25" s="228">
         <f t="shared" si="10"/>
         <v>0.23827011620258615</v>
       </c>
-      <c r="I25" s="230">
+      <c r="I25" s="228">
         <f t="shared" si="10"/>
         <v>0.14438049836127348</v>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
-        <v>45381</v>
+        <v>45565</v>
       </c>
       <c r="D26" s="49">
         <f>D5</f>
@@ -6830,28 +6847,28 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41729</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>86862.399999999994</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="str">
+        <v>87340.5</v>
+      </c>
+      <c r="E27" s="65">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
-        <v/>
-      </c>
-      <c r="F27" s="65" t="str">
+        <v>87737.299999999988</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v/>
+        <v>64308.2</v>
       </c>
       <c r="G27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6881,266 +6898,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>60481</v>
+      </c>
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E30" s="198" t="str">
+        <v>53980.7</v>
+      </c>
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v/>
-      </c>
-      <c r="F30" s="198" t="str">
+        <v>53182.6</v>
+      </c>
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v/>
-      </c>
-      <c r="G30" s="198" t="str">
+        <v>32740.6</v>
+      </c>
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7187,169 +7204,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>26381.4</v>
+      </c>
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E34" s="198" t="str">
+        <v>33359.800000000003</v>
+      </c>
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v/>
-      </c>
-      <c r="F34" s="198" t="str">
+        <v>34554.699999999997</v>
+      </c>
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v/>
-      </c>
-      <c r="G34" s="198" t="str">
+        <v>31567.599999999999</v>
+      </c>
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="198" t="str">
+        <v>1036.4000000000001</v>
+      </c>
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>962.4</v>
+      </c>
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F35" s="198" t="str">
+        <v>935.4</v>
+      </c>
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G35" s="198" t="str">
+        <v>800.5</v>
+      </c>
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>86862.399999999994</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7391,63 +7408,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>0.10178090098055469</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7460,372 +7477,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.77639928013484794</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.77420437305496292</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.71388807333696291</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.71637051812485453</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.72094886207656972</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="154">
         <f t="shared" si="34"/>
         <v>0.72592314610084452</v>
       </c>
-      <c r="J40" s="155">
+      <c r="J40" s="154">
         <f t="shared" si="34"/>
         <v>0.70801924071381883</v>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.14464579170380759</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.14154159637832697</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.16943780125933883</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.20434249385030695</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.18098015478338877</v>
       </c>
-      <c r="I41" s="152">
+      <c r="I41" s="151">
         <f t="shared" si="35"/>
         <v>0.18527327558810205</v>
       </c>
-      <c r="J41" s="152">
+      <c r="J41" s="151">
         <f t="shared" si="35"/>
         <v>0.20191236303675442</v>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152">
+      <c r="I42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J42" s="152">
+      <c r="J42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>6.1826446595215261E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>3.4132590508976859E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>5.3588887717027868E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>9.8606539467285034E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>5.5549805058137539E-3</v>
       </c>
-      <c r="I43" s="152">
+      <c r="I43" s="151">
         <f t="shared" si="37"/>
         <v>4.1195880750011828E-3</v>
       </c>
-      <c r="J43" s="152">
+      <c r="J43" s="151">
         <f t="shared" si="37"/>
         <v>4.616990760164307E-3</v>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.4800044498706581E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>2.2586604162686892E-3</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>2.8447718054039261E-3</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>1.9289008554358115E-3</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>2.1441854720433318E-3</v>
       </c>
-      <c r="I44" s="152">
+      <c r="I44" s="151">
         <f t="shared" si="38"/>
         <v>2.4432408553146123E-3</v>
       </c>
-      <c r="J44" s="152">
+      <c r="J44" s="151">
         <f t="shared" si="38"/>
         <v>2.4925765839602177E-3</v>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I45" s="152">
+      <c r="I45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J45" s="152">
+      <c r="J45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>7.1292279051952262E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>7.8582111099543772E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.10847046482659158</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>6.749743322267418E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>9.0371817162184481E-2</v>
       </c>
-      <c r="I46" s="152">
+      <c r="I46" s="151">
         <f t="shared" si="40"/>
         <v>8.2240749380737624E-2</v>
       </c>
-      <c r="J46" s="152">
+      <c r="J46" s="151">
         <f t="shared" si="40"/>
         <v>8.295882890530222E-2</v>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7837,216 +7854,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>1.2515541822468641</v>
+      </c>
+      <c r="D48" s="267">
+        <f t="shared" si="41"/>
+        <v>1.084083558028635</v>
+      </c>
+      <c r="E48" s="267">
+        <f t="shared" si="41"/>
+        <v>1.1276583619509606</v>
+      </c>
+      <c r="F48" s="267">
+        <f t="shared" si="41"/>
+        <v>1.0910552620039125</v>
+      </c>
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="H48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="I48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="J48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="e">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I48" s="269" t="e">
+        <v/>
+      </c>
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" s="269" t="e">
+        <v/>
+      </c>
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M48" s="269" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N48" s="87"/>
+        <v/>
+      </c>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="e">
+      <c r="G51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="152" t="e">
+      <c r="H51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="152" t="e">
+      <c r="I51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8062,350 +8079,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>0.2917833262723572</v>
+      </c>
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E53" s="155" t="str">
+        <v>0.37093215633068283</v>
+      </c>
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F53" s="155" t="str">
+        <v>0.38318138351647474</v>
+      </c>
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G53" s="155" t="str">
+        <v>0.47843198845559354</v>
+      </c>
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>8.6599205211192604E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>8.6722499851857676E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>4.3435573352998177E-2</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>4.9404128398176213E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>0.1460893174144591</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>6.1468062502766631E-2</v>
       </c>
-      <c r="I55" s="152">
+      <c r="I55" s="151">
         <f t="shared" si="47"/>
         <v>5.009181100635824E-2</v>
       </c>
-      <c r="J55" s="152">
+      <c r="J55" s="151">
         <f t="shared" si="47"/>
         <v>5.5654001160438483E-2</v>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+        <v>0.34882356809364107</v>
+      </c>
+      <c r="D58" s="269">
+        <f t="shared" si="49"/>
+        <v>0.22642763513944536</v>
+      </c>
+      <c r="E58" s="269">
+        <f t="shared" si="49"/>
+        <v>0.24130286274054882</v>
+      </c>
+      <c r="F58" s="269">
+        <f t="shared" si="49"/>
+        <v>0.2595857263115473</v>
+      </c>
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="H58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="I58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="J58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="e">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="271" t="e">
+        <v/>
+      </c>
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" s="271" t="e">
-        <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L58" s="271" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M58" s="271" t="str">
+        <v/>
+      </c>
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
+        <v>0.32102321299401587</v>
+      </c>
+      <c r="D59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.20835828389520974</v>
+      </c>
+      <c r="E59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.23125803729802027</v>
+      </c>
+      <c r="F59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.24736488001794146</v>
+      </c>
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="H59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="I59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="J59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="e">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="271" t="e">
+        <v/>
+      </c>
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M59" s="271" t="str">
+        <v/>
+      </c>
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9684,7 +9701,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9702,7 +9719,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9720,67 +9737,67 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>26381.4</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>25345</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
-        <v>0</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9793,25 +9810,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-63062.799713451204</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>3.3904265775679532</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9819,7 +9836,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9829,287 +9846,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
-        <v>45381</v>
-      </c>
-      <c r="E9" s="118" t="str">
+        <v>45565</v>
+      </c>
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
-        <v>FY</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+        <v>Quarter</v>
+      </c>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10120,21 +10137,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10147,45 +10164,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10193,17 +10210,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10213,19 +10230,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10235,17 +10252,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10254,7 +10271,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10264,17 +10281,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10287,7 +10304,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10297,17 +10314,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10334,12 +10351,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10349,171 +10366,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10521,25 +10538,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10547,26 +10564,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10574,131 +10591,131 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>60481</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10708,16 +10725,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10727,16 +10744,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10746,14 +10763,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10766,7 +10783,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10776,33 +10793,33 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>79</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10810,14 +10827,14 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>60481</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10826,109 +10843,109 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>86862.399999999994</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="87"/>
+        <v>60481</v>
+      </c>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+        <v>P/B Approach</v>
+      </c>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>1036.4000000000001</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="88">
+        <v>2.4911228420023197</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>2581.7997134512043</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10936,61 +10953,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11004,35 +11021,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11046,29 +11063,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11082,9 +11099,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11092,32 +11109,32 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>86862.399999999994</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11127,65 +11144,65 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+        <v>60481</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>26381.399999999994</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.2925621839629442</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+        <v>-60481</v>
+      </c>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
-        <v>45381</v>
-      </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+        <v>45382</v>
+      </c>
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11195,66 +11212,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>108713</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>108713</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>108713</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>86428</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>86428</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.79501071628968012</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>86428</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.79501071628968012</v>
       </c>
@@ -11262,50 +11279,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>22285</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>22285</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>22285</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>232</v>
+      <c r="B77" s="103" t="s">
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>13300.2</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>13300.2</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.12234231416665901</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>13300.2</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.12234231416665901</v>
       </c>
@@ -11313,60 +11330,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.3233621247382252E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>143.86666666666667</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.3233621247382252E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>8.1323607418922597E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>8840.9333333333325</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>8.1323607418922597E-2</v>
       </c>
@@ -11374,61 +11391,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>704.6</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>704.6</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>704.6</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>6.4812855868203439E-3</v>
       </c>
@@ -11436,59 +11453,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>8136.3333333333321</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>7.4842321832102252E-2</v>
       </c>
@@ -11496,184 +11513,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>5.6131741374076692E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>6102.2499999999991</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>5.6131741374076692E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.61097424994218896</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>9.2853229474496798E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>9.2853229474496798E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>9.2853229474496798E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.90020160432627339</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.44000000000000006</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.72016128346101871</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.90020160432627339</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.3586626139817641E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6066066066066076E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>6.6869300911854113E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.3586626139817641E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11681,55 +11698,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.630146276355532</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>15.710150850596232</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.630146276355532</v>
+        <v>15.710150850596232</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9935898767171523</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>10.031295349646749</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.490129403067987</v>
+        <v>13.552802796880295</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11739,123 +11756,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77614.154325206924</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>78011.430669397872</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7709450979131658</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>7.810721510943087</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7709450979131658</v>
-      </c>
-      <c r="I97" s="122">
+        <v>7.810721510943087</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.606888152756785</v>
+        <v>10.661180643414006</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-2581.7997134512043</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.25849697135102762</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>77614.154325206924</v>
-      </c>
-      <c r="D100" s="109">
+        <v>75429.630955946661</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.6053033332261899</v>
-      </c>
-      <c r="E100" s="109">
+        <v>6.4193908586532498</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.7709450979131658</v>
-      </c>
-      <c r="F100" s="109">
+        <v>7.5522245395920597</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>7.7709450979131649</v>
-      </c>
-      <c r="H100" s="109">
+        <v>7.5522245395920589</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.7709450979131649</v>
-      </c>
-      <c r="I100" s="109">
+        <v>7.552224539592058</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.606888152756785</v>
+        <v>10.402683672062979</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11865,58 +11882,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>66987.535935003689</v>
-      </c>
-      <c r="D103" s="109">
+        <v>67298.751349973376</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.96211252577866</v>
-      </c>
-      <c r="E103" s="122">
+        <v>4.9833225916140247</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9685803888162727</v>
-      </c>
-      <c r="F103" s="109">
+        <v>4.9873266727502878</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>5.8377794420925415</v>
-      </c>
-      <c r="H103" s="122">
+        <v>5.8627324607223823</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7069784953688103</v>
-      </c>
-      <c r="I103" s="109">
+        <v>6.7381382486944768</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1546356134244427</v>
+        <v>9.1971668646723241</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11926,58 +11943,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>63619.513759172762</v>
-      </c>
-      <c r="D106" s="109">
+        <v>62620.86854949814</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>5.783707929502425</v>
-      </c>
-      <c r="E106" s="122">
+        <v>5.7013567251336372</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>6.3697627433647188</v>
-      </c>
-      <c r="F106" s="109">
+        <v>6.2697756061711738</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>6.8043622700028532</v>
-      </c>
-      <c r="H106" s="122">
+        <v>6.7074785001572206</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.2389617966409876</v>
-      </c>
-      <c r="I106" s="122">
+        <v>7.1451813941432674</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.8807618830906137</v>
+        <v>9.7999252683676517</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11986,15 +12003,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C1D29C9-D651-4842-8403-23E072A15436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864DA006-BD31-49EC-A151-C34AB445608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3475,7 +3492,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3898,7 +3915,7 @@
         <v>232</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3908,11 +3925,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3926,10 +3943,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4151,8 +4168,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4165,8 +4185,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4209,60 +4229,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.58</v>
+        <v>6.64</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>65719.308143999995</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>66318.572352000003</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4285,11 +4305,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4430,7 +4450,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.34882356809364112</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4442,20 +4462,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.2917833262723572</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>8.1323607418922597E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.2515541822468641</v>
       </c>
@@ -4464,26 +4484,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>8.1323607418922597E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>3.4272006312882226</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4911228420023197</v>
+        <v>2.5138382478564441</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>6.4812855868203439E-3</v>
       </c>
@@ -4492,7 +4512,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.769684648121597</v>
+        <v>10.867888459502645</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4524,7 +4544,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4543,10 +4563,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4554,22 +4574,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9833225916140247</v>
+        <v>4.9673603169848883</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>10.576741894373171</v>
+        <v>10.539931302367208</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8627324607223823</v>
-      </c>
-      <c r="G29" s="285">
+        <v>5.8439533140998687</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1971668646723241</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>9.1651576542323561</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5600,7 +5620,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7841,7 +7861,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9768,7 +9788,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>25345</v>
       </c>
@@ -9813,11 +9833,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-63062.799713451204</v>
+        <v>-63086.341960078418</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>3.3904265775679532</v>
+        <v>3.3913189580567527</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10815,7 +10835,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10832,7 +10852,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>60481</v>
       </c>
@@ -10905,11 +10925,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4911228420023197</v>
+        <v>2.5138382478564441</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2581.7997134512043</v>
+        <v>2605.3419600784187</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10941,11 +10961,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10956,11 +10976,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10972,11 +10992,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11190,19 +11210,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11212,18 +11232,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11590,17 +11610,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2853229474496798E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2853229474496798E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2853229474496798E-2</v>
+        <v>9.2014194268401961E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11641,17 +11661,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6869300911854113E-2</v>
+        <v>6.6265060240963861E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3586626139817641E-2</v>
+        <v>8.2831325301204836E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11682,15 +11702,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11711,14 +11731,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.710150850596232</v>
+        <v>15.649936244870419</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.710150850596232</v>
+        <v>15.649936244870419</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11739,14 +11759,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.031295349646749</v>
+        <v>10.002920483848715</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.552802796880295</v>
+        <v>13.505634519609707</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11789,21 +11809,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78011.430669397872</v>
+        <v>77712.424785588286</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.810721510943087</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.810721510943087</v>
+        <v>7.7807842098510536</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.661180643414006</v>
+        <v>10.620317968375435</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11813,14 +11833,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-2581.7997134512043</v>
+        <v>-2605.3419600784187</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.25849697135102762</v>
+        <v>-0.26085408659131054</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11852,27 +11872,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>75429.630955946661</v>
+        <v>75107.08282550986</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.4193908586532498</v>
+        <v>6.391940604770781</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.5522245395920597</v>
+        <v>7.5199301232597433</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>7.5522245395920589</v>
+        <v>7.5199301232597424</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.552224539592058</v>
+        <v>7.5199301232597415</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.402683672062979</v>
+        <v>10.359463881784125</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11913,27 +11933,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>67298.751349973376</v>
+        <v>67064.529232879606</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9833225916140247</v>
+        <v>4.9673603169848883</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9873266727502878</v>
+        <v>4.9732193496082946</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>5.8627324607223823</v>
+        <v>5.8439533140998687</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7381382486944768</v>
+        <v>6.714687278591442</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1971668646723241</v>
+        <v>9.1651576542323561</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11974,27 +11994,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>62620.86854949814</v>
+        <v>62389.14436903235</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>5.7013567251336372</v>
+        <v>5.6796504608778342</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>6.2697756061711738</v>
+        <v>6.2465747364340185</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>6.7074785001572206</v>
+        <v>6.6819417186798056</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.1451813941432674</v>
+        <v>7.1173087009255918</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.7999252683676517</v>
+        <v>9.7623107680082413</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{864DA006-BD31-49EC-A151-C34AB445608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{736C33ED-207E-4F11-AD1B-379D050E42C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.3207261724659615E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.64</v>
+        <v>6.61</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>66318.572352000003</v>
+        <v>66018.940247999999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5138382478564441</v>
+        <v>2.5024805449293819</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.867888459502645</v>
+        <v>10.818786553812121</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.3207261724659615E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4574,20 +4574,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.9673603169848883</v>
+        <v>4.9753000582772593</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>10.539931302367208</v>
+        <v>10.558240231127462</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8439533140998687</v>
+        <v>5.8532941862085401</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1651576542323561</v>
+        <v>9.1810784618499675</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9739,7 +9739,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9833,11 +9833,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-63086.341960078418</v>
+        <v>-63074.570836764811</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>3.3913189580567527</v>
+        <v>3.3908727678123531</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10925,11 +10925,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5138382478564441</v>
+        <v>2.5024805449293819</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2605.3419600784187</v>
+        <v>2593.5708367648117</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11610,17 +11610,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.2431807858122383E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.2431807858122383E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2014194268401961E-2</v>
+        <v>9.2431807858122383E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11661,17 +11661,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.3207261724659615E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6265060240963861E-2</v>
+        <v>6.6565809379727697E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2831325301204836E-2</v>
+        <v>8.3207261724659615E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11731,14 +11731,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.649936244870419</v>
+        <v>15.679883780235748</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.649936244870419</v>
+        <v>15.679883780235748</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11759,14 +11759,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.002920483848715</v>
+        <v>10.017035488570382</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.505634519609707</v>
+        <v>13.529095175394628</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11809,21 +11809,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77712.424785588286</v>
+        <v>77861.134374763424</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7956734277142177</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7807842098510536</v>
+        <v>7.7956734277142177</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.620317968375435</v>
+        <v>10.640640884901897</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11833,14 +11833,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-2605.3419600784187</v>
+        <v>-2593.5708367648117</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26085408659131054</v>
+        <v>-0.25967552897116908</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11850,18 +11850,18 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-60481</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-6.9638549145588211</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-6.0555260126598451</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11872,27 +11872,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>75107.08282550986</v>
+        <v>14786.563537998605</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>6.391940604770781</v>
+        <v>0.57214298418422782</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>7.5199301232597433</v>
+        <v>0.57214298418422782</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>7.5199301232597424</v>
+        <v>1.0263074351337149</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>7.5199301232597415</v>
+        <v>1.480471886083202</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.359463881784125</v>
+        <v>4.3254393432708831</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11933,27 +11933,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>67064.529232879606</v>
+        <v>67181.027116294543</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.9673603169848883</v>
+        <v>4.9753000582772593</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9732193496082946</v>
+        <v>4.9802370015745332</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>5.8439533140998687</v>
+        <v>5.8532941862085401</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.714687278591442</v>
+        <v>6.7263513708425462</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1651576542323561</v>
+        <v>9.1810784618499675</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11994,27 +11994,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>62389.14436903235</v>
+        <v>27727.854955673127</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>5.6796504608778342</v>
+        <v>2.7737215212307436</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>6.2465747364340185</v>
+        <v>2.7761899928793805</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>6.6819417186798056</v>
+        <v>3.4398008106711275</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.1173087009255918</v>
+        <v>4.1034116284628741</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>9.7623107680082413</v>
+        <v>6.7532589025604253</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E678AFDD-7A0D-47BD-B933-610D56E773D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E041EC-7653-4740-A4A5-6563E9855AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2212257100149483E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.69</v>
+        <v>6.66</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>66817.959192000009</v>
+        <v>66518.327088000005</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4673,7 +4673,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5327677527348813</v>
+        <v>2.5214100498078191</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.949724968986851</v>
+        <v>10.900623063296328</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2212257100149483E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4792,20 +4792,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.6684421770350957</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.479030192740145</v>
+        <v>10.527830955438109</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.6687555023942302</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1122001676001272</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10038,11 +10038,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-63105.96049893443</v>
+        <v>-63094.189375620823</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>3.3920626084640855</v>
+        <v>3.391616418219686</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11130,11 +11130,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5327677527348813</v>
+        <v>2.5214100498078191</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2624.9604989344311</v>
+        <v>2613.1893756208242</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11842,17 +11842,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1326494759669502E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1326494759669502E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1326494759669502E-2</v>
+        <v>9.1737875366695032E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11893,17 +11893,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2212257100149483E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5769805680119586E-2</v>
+        <v>6.6066066066066076E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2212257100149483E-2</v>
+        <v>8.2582582582582581E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11956,21 +11956,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.098912833075756</v>
+        <v>15.630146276355532</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.098912833075756</v>
+        <v>15.630146276355532</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11991,14 +11991,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.7859992352602152</v>
+        <v>9.9935898767171523</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.498687814147427</v>
+        <v>13.490129403067987</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12041,21 +12041,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>86021.858300585533</v>
+        <v>77614.154325206924</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.6127478149589933</v>
+        <v>7.7709450979131658</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.6127478149589933</v>
+        <v>7.7709450979131658</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.38030753092346</v>
+        <v>10.606888152756785</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12065,14 +12065,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2624.9604989344311</v>
+        <v>-2613.1893756208242</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26281834929154629</v>
+        <v>-0.26163979167140489</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12105,23 +12105,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9502429350564616</v>
+        <v>1.2357123995446286</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.2944034530076021</v>
+        <v>1.453779293581916</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.2944034530076021</v>
+        <v>1.453779293581916</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.2944034530076021</v>
+        <v>1.453779293581916</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.0619631689720688</v>
+        <v>4.2897223484255349</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12160,23 +12160,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.6684421770350957</v>
+        <v>4.96211252577866</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.7769371153186277</v>
+        <v>4.9685803888162727</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.6687555023942302</v>
+        <v>5.8377794420925415</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.5605738894698318</v>
+        <v>6.7069784953688103</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1122001676001272</v>
+        <v>9.1546356134244427</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12215,23 +12215,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.8093425560457788</v>
+        <v>3.0989124626616444</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.0356702841631149</v>
+        <v>3.2111798411990944</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.4815794777009161</v>
+        <v>3.6457793678372288</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.9274886712387165</v>
+        <v>4.0803788944753627</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>6.587081668286098</v>
+        <v>6.7221789809249888</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E041EC-7653-4740-A4A5-6563E9855AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06032A55-C44D-4C68-9528-D74951B1DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3705,7 +3706,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.2956259426847673E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4357,7 +4358,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4380,6 +4381,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4398,8 +4402,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4435,24 +4439,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.66</v>
+        <v>6.63</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4462,7 +4469,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
@@ -4491,11 +4498,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>66518.327088000005</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>66218.694984000002</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4518,11 +4525,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4590,10 +4597,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4640,7 +4647,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4714,7 +4721,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5214100498078191</v>
+        <v>2.510052346880757</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4737,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.900623063296328</v>
+        <v>10.851521157605804</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4762,7 +4769,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.2956259426847673E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4781,10 +4788,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4792,22 +4799,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.96211252577866</v>
+        <v>5.453504347998555</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>10.527830955438109</v>
+        <v>11.864121087822371</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.8377794420925415</v>
-      </c>
-      <c r="G29" s="312">
+        <v>6.4158874682335938</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>9.1546356134244427</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>10.316627032889018</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5789,15 +5796,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5825,7 +5833,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10038,11 +10046,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-63094.189375620823</v>
+        <v>-63082.418252307216</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>3.391616418219686</v>
+        <v>3.391170227975286</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11130,11 +11138,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5214100498078191</v>
+        <v>2.510052346880757</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2613.1893756208242</v>
+        <v>2601.4182523072168</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11842,17 +11850,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
+        <v>9.2152978875141622E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
+        <v>9.2152978875141622E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1737875366695032E-2</v>
+        <v>9.2152978875141622E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11893,17 +11901,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.2956259426847673E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6066066066066076E-2</v>
+        <v>6.6365007541478144E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2582582582582581E-2</v>
+        <v>8.2956259426847673E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11952,7 +11960,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11963,14 +11971,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.630146276355532</v>
+        <v>17.183356397673432</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.630146276355532</v>
+        <v>17.183356397673432</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11991,14 +11999,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.9935898767171523</v>
+        <v>10.981200497896406</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.490129403067987</v>
+        <v>14.828082248949219</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12041,21 +12049,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>77614.154325206924</v>
+        <v>85326.883811162159</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>7.7709450979131658</v>
+        <v>8.543165035262259</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>7.7709450979131658</v>
+        <v>8.543165035262259</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.606888152756785</v>
+        <v>11.955307244169529</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12065,14 +12073,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2613.1893756208242</v>
+        <v>-2601.4182523072168</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26163979167140489</v>
+        <v>-0.26046123405126342</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12105,23 +12113,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.2357123995446286</v>
+        <v>1.8931011202684782</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.453779293581916</v>
+        <v>2.2271777885511508</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>1.453779293581916</v>
+        <v>2.2271777885511508</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.453779293581916</v>
+        <v>2.2271777885511508</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>4.2897223484255349</v>
+        <v>5.6393199974584203</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12160,23 +12168,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.96211252577866</v>
+        <v>5.453504347998555</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.9685803888162727</v>
+        <v>5.4595974132000906</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.8377794420925415</v>
+        <v>6.4158874682335938</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>6.7069784953688103</v>
+        <v>7.372177523267097</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>9.1546356134244427</v>
+        <v>10.316627032889018</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12215,23 +12223,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.0989124626616444</v>
+        <v>3.6733027341335167</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.2111798411990944</v>
+        <v>3.8433876008756207</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.6457793678372288</v>
+        <v>4.3215326283923723</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.0803788944753627</v>
+        <v>4.7996776559091234</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>6.7221789809249888</v>
+        <v>7.9779735151737192</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06032A55-C44D-4C68-9528-D74951B1DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE52EC9-E041-482A-BE1D-F7A2360A4097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.2956259426847673E-2</v>
+        <v>8.3081570996978854E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4439,27 +4439,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4469,40 +4469,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>66218.694984000002</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>66118.817616</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4525,11 +4525,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.510052346880757</v>
+        <v>2.5062664459050694</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.851521157605804</v>
+        <v>10.835153855708963</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.2956259426847673E-2</v>
+        <v>8.3081570996978854E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4788,10 +4788,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4799,22 +4799,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.453504347998555</v>
+        <v>5.8319379216533216</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.864121087822371</v>
+        <v>11.785149808800195</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.4158874682335938</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.8611034372392021</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.316627032889018</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>10.247956355478431</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5797,15 +5797,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10046,11 +10046,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-63082.418252307216</v>
+        <v>-63078.494544536014</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>3.391170227975286</v>
+        <v>3.3910214978938193</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11138,11 +11138,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.510052346880757</v>
+        <v>2.5062664459050694</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2601.4182523072168</v>
+        <v>2597.494544536014</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11178,7 +11178,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11189,11 +11189,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11205,11 +11205,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11850,17 +11850,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2152978875141622E-2</v>
+        <v>9.2292182770723402E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2152978875141622E-2</v>
+        <v>9.2292182770723402E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2152978875141622E-2</v>
+        <v>9.2292182770723402E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11901,17 +11901,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2956259426847673E-2</v>
+        <v>8.3081570996978854E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6365007541478144E-2</v>
+        <v>6.6465256797583083E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.2956259426847673E-2</v>
+        <v>8.3081570996978854E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11964,21 +11964,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.183356397673432</v>
+        <v>15.741493221804781</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.183356397673432</v>
+        <v>15.741493221804781</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11999,14 +11999,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.981200497896406</v>
+        <v>10.301660674150316</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>14.828082248949219</v>
+        <v>13.69856491310537</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12049,21 +12049,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>85326.883811162159</v>
+        <v>89892.126536637719</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.543165035262259</v>
+        <v>9.0002498400476192</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.543165035262259</v>
+        <v>9.0002498400476192</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.955307244169529</v>
+        <v>11.776279962931186</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12073,14 +12073,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2601.4182523072168</v>
+        <v>-2597.494544536014</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26046123405126342</v>
+        <v>-0.26006838151121625</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12113,23 +12113,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.8931011202684782</v>
+        <v>2.2819571289950744</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.2271777885511508</v>
+        <v>2.6846554458765581</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.2271777885511508</v>
+        <v>2.6846554458765581</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.2271777885511508</v>
+        <v>2.6846554458765581</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.6393199974584203</v>
+        <v>5.460685568760125</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12168,23 +12168,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.453504347998555</v>
+        <v>5.8319379216533216</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.4595974132000906</v>
+        <v>5.8900079254435598</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>6.4158874682335938</v>
+        <v>6.8611034372392021</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.372177523267097</v>
+        <v>7.8321989490348445</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.316627032889018</v>
+        <v>10.247956355478431</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12223,23 +12223,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.6733027341335167</v>
+        <v>4.0569475253241976</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.8433876008756207</v>
+        <v>4.2873316856600585</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.3215326283923723</v>
+        <v>4.7728794415578797</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.7996776559091234</v>
+        <v>5.2584271974557009</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>7.9779735151737192</v>
+        <v>7.854320962119278</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D035DB-8F9E-45D4-B17A-0B1FB64A2144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7076AA2-2EE6-49C5-BB9C-DB2D9BBA2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3081570996978854E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4479,27 +4479,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.62</v>
+        <v>6.57</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4509,7 +4509,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
@@ -4538,11 +4538,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>66118.817616</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>65619.430775999994</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4565,11 +4565,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.5062664459050694</v>
+        <v>2.4873369410266326</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.835153855708963</v>
+        <v>10.753317346224756</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3081570996978854E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4828,10 +4828,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4839,22 +4839,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8584467303881089</v>
+        <v>5.8710359098135427</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.849735275379064</v>
+        <v>11.877430002312465</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.8922902710448346</v>
-      </c>
-      <c r="G29" s="313">
+        <v>6.9071010703688742</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.304117630764404</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>10.32820000201084</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5837,15 +5837,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10188,11 +10188,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-63078.494544536014</v>
+        <v>-63058.876005680002</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>3.3910214978938193</v>
+        <v>3.3902778474864865</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11280,11 +11280,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.5062664459050694</v>
+        <v>2.4873369410266326</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2597.494544536014</v>
+        <v>2577.8760056800024</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11992,17 +11992,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2292182770723402E-2</v>
+        <v>9.2994558590896337E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2292182770723402E-2</v>
+        <v>9.2994558590896337E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2292182770723402E-2</v>
+        <v>9.2994558590896337E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12043,17 +12043,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3081570996978854E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6465256797583083E-2</v>
+        <v>6.6971080669710817E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3081570996978854E-2</v>
+        <v>8.3713850837138518E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12113,14 +12113,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.813045463722077</v>
+        <v>15.853757714329534</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.813045463722077</v>
+        <v>15.853757714329534</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12141,14 +12141,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.348486404487362</v>
+        <v>10.368133502025156</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.760831117255849</v>
+        <v>13.792992380888538</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12191,21 +12191,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>90300.727111804255</v>
+        <v>90533.215271067806</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.0411600665932905</v>
+        <v>9.0644374280135018</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.0411600665932905</v>
+        <v>9.0644374280135018</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.840816820612993</v>
+        <v>11.871302175436245</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12215,14 +12215,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-2597.494544536014</v>
+        <v>-2577.8760056800024</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26006838151121625</v>
+        <v>-0.2581041188109805</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12255,23 +12255,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3167308215588949</v>
+        <v>2.3381862020612751</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.7255656724222295</v>
+        <v>2.7508072965426766</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.7255656724222295</v>
+        <v>2.7508072965426766</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.7255656724222295</v>
+        <v>2.7508072965426766</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.5252224264419318</v>
+        <v>5.5576720439654199</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12310,23 +12310,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.8584467303881089</v>
+        <v>5.8710359098135427</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9167806887410297</v>
+        <v>5.9280139805247458</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>6.8922902710448346</v>
+        <v>6.9071010703688742</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8677998533486395</v>
+        <v>7.8861881602130026</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.304117630764404</v>
+        <v>10.32820000201084</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12365,23 +12365,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>4.0875887759735017</v>
+        <v>4.1046110559374087</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.3211731805816296</v>
+        <v>4.3394106385337112</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.8089279717335316</v>
+        <v>4.8289541834557754</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>5.2966827628854345</v>
+        <v>5.3184977283778396</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>7.9146700286031679</v>
+        <v>7.9429360229881301</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1929.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1929.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7076AA2-2EE6-49C5-BB9C-DB2D9BBA2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE76727C-851D-4037-B0CC-1E83629BC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3713850837138518E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4479,27 +4479,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1929.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.57</v>
+        <v>6.59</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4509,40 +4509,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>周大福</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>9987736800</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>65619.430775999994</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>65819.185511999996</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4565,11 +4565,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.4873369410266326</v>
+        <v>2.4949087429780072</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>10.753317346224756</v>
+        <v>10.786051950018438</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.3713850837138518E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4828,10 +4828,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4839,22 +4839,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>5.8710359098135427</v>
+        <v>5.8659748531983844</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>11.877430002312465</v>
+        <v>11.866295853475473</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>6.9071010703688742</v>
-      </c>
-      <c r="G29" s="314">
+        <v>6.9011468861157468</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.32820000201084</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>10.318518133456934</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5837,15 +5837,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10188,11 +10188,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-63058.876005680002</v>
+        <v>-63066.723421222407</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>3.3902778474864865</v>
+        <v>3.3905753076494198</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11280,11 +11280,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.4873369410266326</v>
+        <v>2.4949087429780072</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2577.8760056800024</v>
+        <v>2585.7234212224071</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11320,7 +11320,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11331,11 +11331,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11347,11 +11347,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11992,17 +11992,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2994558590896337E-2</v>
+        <v>9.271232927802564E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2994558590896337E-2</v>
+        <v>9.271232927802564E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.2994558590896337E-2</v>
+        <v>9.271232927802564E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12043,17 +12043,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3713850837138518E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6971080669710817E-2</v>
+        <v>6.676783004552353E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3713850837138518E-2</v>
+        <v>8.3459787556904405E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12113,14 +12113,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.853757714329534</v>
+        <v>15.837389243453636</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>15.853757714329534</v>
+        <v>15.837389243453636</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12141,14 +12141,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>10.368133502025156</v>
+        <v>10.360235527757744</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.792992380888538</v>
+        <v>13.780062544211209</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12191,21 +12191,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>90533.215271067806</v>
+        <v>90439.742775513849</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.0644374280135018</v>
+        <v>9.0550787016648115</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.0644374280135018</v>
+        <v>9.0550787016648115</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.871302175436245</v>
+        <v>11.859045455772744</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12215,14 +12215,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-2577.8760056800024</v>
+        <v>-2585.7234212224071</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.2581041188109805</v>
+        <v>-0.25888982389107479</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12255,23 +12255,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3381862020612751</v>
+        <v>2.3295634353468082</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.7508072965426766</v>
+        <v>2.740662865113892</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.7508072965426766</v>
+        <v>2.740662865113892</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.7508072965426766</v>
+        <v>2.740662865113892</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.5576720439654199</v>
+        <v>5.5446296192218245</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12310,23 +12310,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>5.8710359098135427</v>
+        <v>5.8659748531983844</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.9280139805247458</v>
+        <v>5.923498288103743</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>6.9071010703688742</v>
+        <v>6.9011468861157468</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.8861881602130026</v>
+        <v>7.8787954841277514</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.32820000201084</v>
+        <v>10.318518133456934</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12365,23 +12365,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>4.1046110559374087</v>
+        <v>4.0977691442725961</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.3394106385337112</v>
+        <v>4.3320805766088171</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.8289541834557754</v>
+        <v>4.8209048756148194</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>5.3184977283778396</v>
+        <v>5.3097291746208217</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>7.9429360229881301</v>
+        <v>7.931573876339379</v>
       </c>
       <c r="K106" s="75"/>
     </row>
